--- a/teaching/traditional_assets/database/data/poland/poland_software_internet.xlsx
+++ b/teaching/traditional_assets/database/data/poland/poland_software_internet.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="wse_btc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,34 +593,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.3605</v>
+        <v>-0.405</v>
       </c>
       <c r="G2">
-        <v>-0.08758548132561811</v>
+        <v>0.6166134185303515</v>
       </c>
       <c r="H2">
-        <v>-0.08758548132561811</v>
+        <v>0.6166134185303515</v>
       </c>
       <c r="I2">
-        <v>0.001578116780641772</v>
+        <v>0.3130990415335463</v>
       </c>
       <c r="J2">
-        <v>0.001578116780641772</v>
+        <v>0.3130990415335463</v>
       </c>
       <c r="K2">
-        <v>-6.861</v>
+        <v>-0.485</v>
       </c>
       <c r="L2">
-        <v>1.804576538663861</v>
+        <v>-1.549520766773163</v>
       </c>
       <c r="M2">
-        <v>0.987</v>
+        <v>0.013</v>
       </c>
       <c r="N2">
-        <v>0.08800713330361122</v>
+        <v>0.000578806767586821</v>
       </c>
       <c r="O2">
-        <v>-0.1438565806733712</v>
+        <v>-0.0268041237113402</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +632,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.987</v>
+        <v>0.013</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>0.004</v>
+        <v>0.129</v>
       </c>
       <c r="V2">
-        <v>0.0003566651805617476</v>
+        <v>0.005743544078361531</v>
       </c>
       <c r="W2">
-        <v>-0.3487903225806451</v>
+        <v>0.03716216216216216</v>
       </c>
       <c r="X2">
-        <v>0.09282462259609345</v>
+        <v>0.06110636609622598</v>
       </c>
       <c r="Y2">
-        <v>-0.4416149451767386</v>
+        <v>-0.02394420393406382</v>
       </c>
       <c r="Z2">
-        <v>-0.2285267776642423</v>
+        <v>16.47368421052633</v>
       </c>
       <c r="AA2">
-        <v>0.01246655315008514</v>
+        <v>0.2791519434628976</v>
       </c>
       <c r="AB2">
-        <v>0.09282462259609345</v>
+        <v>0.06097060475683787</v>
       </c>
       <c r="AC2">
-        <v>-0.08042449488030176</v>
+        <v>0.2181813387060597</v>
       </c>
       <c r="AD2">
-        <v>0.018</v>
+        <v>0.098</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.018</v>
+        <v>0.098</v>
       </c>
       <c r="AG2">
-        <v>0.014</v>
+        <v>-0.031</v>
       </c>
       <c r="AH2">
-        <v>0.001602421436837888</v>
+        <v>0.004344356769217129</v>
       </c>
       <c r="AI2">
-        <v>0.5</v>
+        <v>0.02566788894709272</v>
       </c>
       <c r="AJ2">
-        <v>0.001246771751714311</v>
+        <v>-0.001382139194792456</v>
       </c>
       <c r="AK2">
-        <v>0.4374999999999999</v>
+        <v>-0.008403361344537816</v>
       </c>
       <c r="AL2">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AM2">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AN2">
-        <v>-5.999999999999999</v>
+        <v>7.538461538461539</v>
       </c>
       <c r="AO2">
-        <v>-1.500000000000004</v>
+        <v>98</v>
       </c>
       <c r="AP2">
-        <v>-4.666666666666666</v>
+        <v>-2.384615384615385</v>
       </c>
       <c r="AQ2">
-        <v>-1.500000000000004</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +715,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optizen Labs S.A. (WSE:OPT)</t>
+          <t>Planet B2B S.A. (WSE:P2B)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,34 +724,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.234</v>
+        <v>-0.405</v>
       </c>
       <c r="G3">
-        <v>0.1086142322097378</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1086142322097378</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.06741573033707864</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J3">
-        <v>-0.06741573033707864</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K3">
-        <v>-0.018</v>
+        <v>0.03</v>
       </c>
       <c r="L3">
-        <v>-0.06741573033707864</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.013</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.001031746031746032</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,61 +760,64 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.013</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>7.936507936507937e-05</v>
       </c>
       <c r="W3">
-        <v>0.0594059405940594</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="X3">
-        <v>0.09282462259609345</v>
+        <v>0.06092427536962906</v>
       </c>
       <c r="Y3">
-        <v>-0.03341868200203404</v>
+        <v>1.605742391297038</v>
       </c>
       <c r="Z3">
-        <v>-0.8811881188118813</v>
+        <v>2.1875</v>
       </c>
       <c r="AA3">
-        <v>0.0594059405940594</v>
+        <v>0.9375</v>
       </c>
       <c r="AB3">
-        <v>0.09282462259609345</v>
+        <v>0.06092184935634777</v>
       </c>
       <c r="AC3">
-        <v>-0.03341868200203404</v>
+        <v>0.8765781506436522</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>7.935878104912309e-05</v>
       </c>
       <c r="AI3">
-        <v>-0</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -829,7 +834,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stoppoint S.A. (WSE:STO)</t>
+          <t>BTC Studios S.A. (WSE:BTC)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -837,32 +842,35 @@
           <t>Software (Internet)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.5649999999999999</v>
+      </c>
       <c r="G4">
-        <v>-0.07536231884057971</v>
+        <v>5.361111111111112</v>
       </c>
       <c r="H4">
-        <v>-0.07536231884057971</v>
+        <v>5.361111111111112</v>
       </c>
       <c r="I4">
-        <v>-0.04951690821256038</v>
+        <v>2.194444444444445</v>
       </c>
       <c r="J4">
-        <v>-0.04951690821256038</v>
+        <v>2.194444444444445</v>
       </c>
       <c r="K4">
-        <v>-6.67</v>
+        <v>-0.504</v>
       </c>
       <c r="L4">
-        <v>1.611111111111111</v>
+        <v>-14</v>
       </c>
       <c r="M4">
-        <v>0.987</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.1052238805970149</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0.147976011994003</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -874,67 +882,76 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.987</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.004</v>
+        <v>0.106</v>
       </c>
       <c r="V4">
-        <v>0.0004264392324093816</v>
+        <v>0.01620795107033639</v>
       </c>
       <c r="W4">
-        <v>-0.416875</v>
+        <v>-1.780918727915195</v>
       </c>
       <c r="X4">
-        <v>0.09293906257449974</v>
+        <v>0.06110636609622598</v>
       </c>
       <c r="Y4">
-        <v>-0.5098140625744998</v>
+        <v>-1.84202509401142</v>
       </c>
       <c r="Z4">
-        <v>-0.2517635611773291</v>
+        <v>0.127208480565371</v>
       </c>
       <c r="AA4">
-        <v>0.01246655315008514</v>
+        <v>0.2791519434628976</v>
       </c>
       <c r="AB4">
-        <v>0.09289104803038689</v>
+        <v>0.06097060475683787</v>
       </c>
       <c r="AC4">
-        <v>-0.08042449488030176</v>
+        <v>0.2181813387060597</v>
       </c>
       <c r="AD4">
-        <v>0.018</v>
+        <v>0.029</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.018</v>
+        <v>0.029</v>
       </c>
       <c r="AG4">
-        <v>0.014</v>
+        <v>-0.077</v>
       </c>
       <c r="AH4">
-        <v>0.001915301127899553</v>
+        <v>0.004414674988582738</v>
       </c>
       <c r="AI4">
-        <v>0.5</v>
+        <v>0.007269992479318125</v>
       </c>
       <c r="AJ4">
-        <v>0.001490312965722802</v>
+        <v>-0.01191397183970292</v>
       </c>
       <c r="AK4">
-        <v>0.4374999999999999</v>
+        <v>-0.0198300283286119</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.001</v>
+      </c>
+      <c r="AN4">
+        <v>2.230769230769231</v>
+      </c>
+      <c r="AO4">
+        <v>79</v>
+      </c>
+      <c r="AP4">
+        <v>-5.923076923076923</v>
+      </c>
+      <c r="AQ4">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +962,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Blockchain Lab S.A. (WSE:BTC)</t>
+          <t>Optizen Labs S.A. (WSE:OPT)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -954,25 +971,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.487</v>
+        <v>-0.235</v>
       </c>
       <c r="G5">
-        <v>-0.1126760563380282</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-0.1126760563380282</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-2.71830985915493</v>
+        <v>-0.05314009661835749</v>
       </c>
       <c r="J5">
-        <v>-2.71830985915493</v>
+        <v>-0.05314009661835749</v>
       </c>
       <c r="K5">
-        <v>-0.173</v>
+        <v>-0.011</v>
       </c>
       <c r="L5">
-        <v>-2.436619718309859</v>
+        <v>-0.05314009661835749</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -996,73 +1013,8779 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.006626506024096385</v>
       </c>
       <c r="W5">
-        <v>-0.3487903225806451</v>
+        <v>0.03716216216216216</v>
       </c>
       <c r="X5">
-        <v>0.09282462259609345</v>
+        <v>0.06177736721235277</v>
       </c>
       <c r="Y5">
-        <v>-0.4416149451767386</v>
+        <v>-0.02461520505019061</v>
       </c>
       <c r="Z5">
-        <v>0.1431451612903226</v>
+        <v>-0.6993243243243243</v>
       </c>
       <c r="AA5">
-        <v>-0.3891129032258064</v>
+        <v>0.03716216216216216</v>
       </c>
       <c r="AB5">
-        <v>0.09282462259609345</v>
+        <v>0.06188549212568831</v>
       </c>
       <c r="AC5">
-        <v>-0.4819375258218999</v>
+        <v>-0.02472332996352615</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.04600000000000001</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.02007083825265644</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>-0.2698412698412699</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.0136660724896019</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>-0.1678832116788321</v>
       </c>
       <c r="AL5">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.004</v>
-      </c>
-      <c r="AN5">
-        <v>-0</v>
-      </c>
-      <c r="AO5">
-        <v>-48.25</v>
-      </c>
-      <c r="AP5">
-        <v>-0</v>
-      </c>
-      <c r="AQ5">
-        <v>-48.25</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BTC Studios S.A. (WSE:BTC)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WSE:BTC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Software (Internet)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.00441467498858274</v>
+      </c>
+      <c r="F2">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <v>6.54</v>
+      </c>
+      <c r="H2">
+        <v>6.28449332430147</v>
+      </c>
+      <c r="I2">
+        <v>6.463</v>
+      </c>
+      <c r="J2">
+        <v>6.50694332430147</v>
+      </c>
+      <c r="K2">
+        <v>0.029</v>
+      </c>
+      <c r="L2">
+        <v>0.32845</v>
+      </c>
+      <c r="M2">
+        <v>0.0609706047568379</v>
+      </c>
+      <c r="N2">
+        <v>0.0606216577891883</v>
+      </c>
+      <c r="O2">
+        <v>0.0303540820120706</v>
+      </c>
+      <c r="P2">
+        <v>0.013122</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.061106366096226</v>
+      </c>
+      <c r="T2">
+        <v>0.0631216397780929</v>
+      </c>
+      <c r="U2">
+        <v>0.934912881803454</v>
+      </c>
+      <c r="V2">
+        <v>0.971281101918282</v>
+      </c>
+      <c r="W2">
+        <v>14.65920175008316</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>6.54</v>
+      </c>
+      <c r="AB2">
+        <v>0.05541304126250898</v>
+      </c>
+      <c r="AC2">
+        <v>0.0374741753235439</v>
+      </c>
+      <c r="AD2">
+        <v>0.19</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.013</v>
+      </c>
+      <c r="AH2">
+        <v>-0.065</v>
+      </c>
+      <c r="AI2">
+        <v>0.444</v>
+      </c>
+      <c r="AJ2">
+        <v>0.029</v>
+      </c>
+      <c r="AK2">
+        <v>0.029</v>
+      </c>
+      <c r="AL2">
+        <v>0.001</v>
+      </c>
+      <c r="AM2">
+        <v>0.029</v>
+      </c>
+      <c r="AN2">
+        <v>0.106</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06092095687954395</v>
+      </c>
+      <c r="C2">
+        <v>6.575215968287829</v>
+      </c>
+      <c r="D2">
+        <v>6.469215968287829</v>
+      </c>
+      <c r="E2">
+        <v>-0.029</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.106</v>
+      </c>
+      <c r="H2">
+        <v>6.54</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.013</v>
+      </c>
+      <c r="K2">
+        <v>-0.065</v>
+      </c>
+      <c r="L2">
+        <v>0.078</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.078</v>
+      </c>
+      <c r="O2">
+        <v>0.01482</v>
+      </c>
+      <c r="P2">
+        <v>0.06318</v>
+      </c>
+      <c r="Q2">
+        <v>-0.001820000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06092095687954395</v>
+      </c>
+      <c r="T2">
+        <v>0.9315669326828548</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.19</v>
+      </c>
+      <c r="W2">
+        <v>0.013122</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06086109706147282</v>
+      </c>
+      <c r="C3">
+        <v>6.517036399853372</v>
+      </c>
+      <c r="D3">
+        <v>6.476726399853372</v>
+      </c>
+      <c r="E3">
+        <v>0.03669</v>
+      </c>
+      <c r="F3">
+        <v>0.06569</v>
+      </c>
+      <c r="G3">
+        <v>0.106</v>
+      </c>
+      <c r="H3">
+        <v>6.54</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.013</v>
+      </c>
+      <c r="K3">
+        <v>-0.065</v>
+      </c>
+      <c r="L3">
+        <v>0.078</v>
+      </c>
+      <c r="M3">
+        <v>0.001064178</v>
+      </c>
+      <c r="N3">
+        <v>0.076935822</v>
+      </c>
+      <c r="O3">
+        <v>0.01461780618</v>
+      </c>
+      <c r="P3">
+        <v>0.06231801582</v>
+      </c>
+      <c r="Q3">
+        <v>-0.002681984179999999</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06134331016310386</v>
+      </c>
+      <c r="T3">
+        <v>0.9391888439502601</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.19</v>
+      </c>
+      <c r="W3">
+        <v>0.013122</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>73.29600875041582</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.0608012372434017</v>
+      </c>
+      <c r="C4">
+        <v>6.458874290147723</v>
+      </c>
+      <c r="D4">
+        <v>6.484254290147723</v>
+      </c>
+      <c r="E4">
+        <v>0.10238</v>
+      </c>
+      <c r="F4">
+        <v>0.13138</v>
+      </c>
+      <c r="G4">
+        <v>0.106</v>
+      </c>
+      <c r="H4">
+        <v>6.54</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.013</v>
+      </c>
+      <c r="K4">
+        <v>-0.065</v>
+      </c>
+      <c r="L4">
+        <v>0.078</v>
+      </c>
+      <c r="M4">
+        <v>0.002128356</v>
+      </c>
+      <c r="N4">
+        <v>0.075871644</v>
+      </c>
+      <c r="O4">
+        <v>0.01441561236</v>
+      </c>
+      <c r="P4">
+        <v>0.06145603164000001</v>
+      </c>
+      <c r="Q4">
+        <v>-0.003543968359999997</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06177428290143031</v>
+      </c>
+      <c r="T4">
+        <v>0.9469663044272042</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.19</v>
+      </c>
+      <c r="W4">
+        <v>0.013122</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>36.64800437520791</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06074137742533056</v>
+      </c>
+      <c r="C5">
+        <v>6.400729700118492</v>
+      </c>
+      <c r="D5">
+        <v>6.491799700118492</v>
+      </c>
+      <c r="E5">
+        <v>0.16807</v>
+      </c>
+      <c r="F5">
+        <v>0.19707</v>
+      </c>
+      <c r="G5">
+        <v>0.106</v>
+      </c>
+      <c r="H5">
+        <v>6.54</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.013</v>
+      </c>
+      <c r="K5">
+        <v>-0.065</v>
+      </c>
+      <c r="L5">
+        <v>0.078</v>
+      </c>
+      <c r="M5">
+        <v>0.003192534</v>
+      </c>
+      <c r="N5">
+        <v>0.074807466</v>
+      </c>
+      <c r="O5">
+        <v>0.01421341854</v>
+      </c>
+      <c r="P5">
+        <v>0.06059404746</v>
+      </c>
+      <c r="Q5">
+        <v>-0.004405952540000001</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06221414167559852</v>
+      </c>
+      <c r="T5">
+        <v>0.9549041249139821</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.19</v>
+      </c>
+      <c r="W5">
+        <v>0.013122</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>24.43200291680527</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06068151760725941</v>
+      </c>
+      <c r="C6">
+        <v>6.342602690997309</v>
+      </c>
+      <c r="D6">
+        <v>6.49936269099731</v>
+      </c>
+      <c r="E6">
+        <v>0.23376</v>
+      </c>
+      <c r="F6">
+        <v>0.26276</v>
+      </c>
+      <c r="G6">
+        <v>0.106</v>
+      </c>
+      <c r="H6">
+        <v>6.54</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.013</v>
+      </c>
+      <c r="K6">
+        <v>-0.065</v>
+      </c>
+      <c r="L6">
+        <v>0.078</v>
+      </c>
+      <c r="M6">
+        <v>0.004256711999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.073743288</v>
+      </c>
+      <c r="O6">
+        <v>0.01401122472</v>
+      </c>
+      <c r="P6">
+        <v>0.05973206328</v>
+      </c>
+      <c r="Q6">
+        <v>-0.005267936719999998</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06266316417422856</v>
+      </c>
+      <c r="T6">
+        <v>0.9630073166609011</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.19</v>
+      </c>
+      <c r="W6">
+        <v>0.013122</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>18.32400218760396</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06062165778918828</v>
+      </c>
+      <c r="C7">
+        <v>6.284493324301468</v>
+      </c>
+      <c r="D7">
+        <v>6.506943324301468</v>
+      </c>
+      <c r="E7">
+        <v>0.29945</v>
+      </c>
+      <c r="F7">
+        <v>0.32845</v>
+      </c>
+      <c r="G7">
+        <v>0.106</v>
+      </c>
+      <c r="H7">
+        <v>6.54</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.013</v>
+      </c>
+      <c r="K7">
+        <v>-0.065</v>
+      </c>
+      <c r="L7">
+        <v>0.078</v>
+      </c>
+      <c r="M7">
+        <v>0.00532089</v>
+      </c>
+      <c r="N7">
+        <v>0.07267911000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.0138090309</v>
+      </c>
+      <c r="P7">
+        <v>0.0588700791</v>
+      </c>
+      <c r="Q7">
+        <v>-0.006129920900000002</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06312163977809293</v>
+      </c>
+      <c r="T7">
+        <v>0.9712811019182818</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.19</v>
+      </c>
+      <c r="W7">
+        <v>0.013122</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>14.65920175008316</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06063955797111713</v>
+      </c>
+      <c r="C8">
+        <v>6.216534596756692</v>
+      </c>
+      <c r="D8">
+        <v>6.504674596756693</v>
+      </c>
+      <c r="E8">
+        <v>0.36514</v>
+      </c>
+      <c r="F8">
+        <v>0.39414</v>
+      </c>
+      <c r="G8">
+        <v>0.106</v>
+      </c>
+      <c r="H8">
+        <v>6.54</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.013</v>
+      </c>
+      <c r="K8">
+        <v>-0.065</v>
+      </c>
+      <c r="L8">
+        <v>0.078</v>
+      </c>
+      <c r="M8">
+        <v>0.007015692</v>
+      </c>
+      <c r="N8">
+        <v>0.070984308</v>
+      </c>
+      <c r="O8">
+        <v>0.01348701852</v>
+      </c>
+      <c r="P8">
+        <v>0.05749728948</v>
+      </c>
+      <c r="Q8">
+        <v>-0.007502710520000004</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06358987018203952</v>
+      </c>
+      <c r="T8">
+        <v>0.9797309251598619</v>
+      </c>
+      <c r="U8">
+        <v>0.0178</v>
+      </c>
+      <c r="V8">
+        <v>0.19</v>
+      </c>
+      <c r="W8">
+        <v>0.014418</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>11.11793391157993</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06071739815304602</v>
+      </c>
+      <c r="C9">
+        <v>6.140997247956726</v>
+      </c>
+      <c r="D9">
+        <v>6.494827247956726</v>
+      </c>
+      <c r="E9">
+        <v>0.43083</v>
+      </c>
+      <c r="F9">
+        <v>0.45983</v>
+      </c>
+      <c r="G9">
+        <v>0.106</v>
+      </c>
+      <c r="H9">
+        <v>6.54</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.013</v>
+      </c>
+      <c r="K9">
+        <v>-0.065</v>
+      </c>
+      <c r="L9">
+        <v>0.078</v>
+      </c>
+      <c r="M9">
+        <v>0.009196599999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.0688034</v>
+      </c>
+      <c r="O9">
+        <v>0.013072646</v>
+      </c>
+      <c r="P9">
+        <v>0.055730754</v>
+      </c>
+      <c r="Q9">
+        <v>-0.009269246000000002</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06406817005703873</v>
+      </c>
+      <c r="T9">
+        <v>0.9883624650302935</v>
+      </c>
+      <c r="U9">
+        <v>0.02</v>
+      </c>
+      <c r="V9">
+        <v>0.19</v>
+      </c>
+      <c r="W9">
+        <v>0.0162</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>8.481395298262402</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06075959833497489</v>
+      </c>
+      <c r="C10">
+        <v>6.069981071687796</v>
+      </c>
+      <c r="D10">
+        <v>6.489501071687797</v>
+      </c>
+      <c r="E10">
+        <v>0.49652</v>
+      </c>
+      <c r="F10">
+        <v>0.52552</v>
+      </c>
+      <c r="G10">
+        <v>0.106</v>
+      </c>
+      <c r="H10">
+        <v>6.54</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.013</v>
+      </c>
+      <c r="K10">
+        <v>-0.065</v>
+      </c>
+      <c r="L10">
+        <v>0.078</v>
+      </c>
+      <c r="M10">
+        <v>0.011088472</v>
+      </c>
+      <c r="N10">
+        <v>0.066911528</v>
+      </c>
+      <c r="O10">
+        <v>0.01271319032</v>
+      </c>
+      <c r="P10">
+        <v>0.05419833768</v>
+      </c>
+      <c r="Q10">
+        <v>-0.01080166232</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06455686775540749</v>
+      </c>
+      <c r="T10">
+        <v>0.9971816470718212</v>
+      </c>
+      <c r="U10">
+        <v>0.0211</v>
+      </c>
+      <c r="V10">
+        <v>0.19</v>
+      </c>
+      <c r="W10">
+        <v>0.017091</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>7.034332593345593</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06084877851690376</v>
+      </c>
+      <c r="C11">
+        <v>5.993064134738923</v>
+      </c>
+      <c r="D11">
+        <v>6.478274134738923</v>
+      </c>
+      <c r="E11">
+        <v>0.56221</v>
+      </c>
+      <c r="F11">
+        <v>0.59121</v>
+      </c>
+      <c r="G11">
+        <v>0.106</v>
+      </c>
+      <c r="H11">
+        <v>6.54</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.013</v>
+      </c>
+      <c r="K11">
+        <v>-0.065</v>
+      </c>
+      <c r="L11">
+        <v>0.078</v>
+      </c>
+      <c r="M11">
+        <v>0.013361346</v>
+      </c>
+      <c r="N11">
+        <v>0.064638654</v>
+      </c>
+      <c r="O11">
+        <v>0.01228134426</v>
+      </c>
+      <c r="P11">
+        <v>0.05235730974</v>
+      </c>
+      <c r="Q11">
+        <v>-0.01264269026</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0650563060625316</v>
+      </c>
+      <c r="T11">
+        <v>1.006194657290086</v>
+      </c>
+      <c r="U11">
+        <v>0.0226</v>
+      </c>
+      <c r="V11">
+        <v>0.19</v>
+      </c>
+      <c r="W11">
+        <v>0.018306</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>5.837735210210109</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06084075869883264</v>
+      </c>
+      <c r="C12">
+        <v>5.928382163749111</v>
+      </c>
+      <c r="D12">
+        <v>6.479282163749112</v>
+      </c>
+      <c r="E12">
+        <v>0.6279</v>
+      </c>
+      <c r="F12">
+        <v>0.6569</v>
+      </c>
+      <c r="G12">
+        <v>0.106</v>
+      </c>
+      <c r="H12">
+        <v>6.54</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.013</v>
+      </c>
+      <c r="K12">
+        <v>-0.065</v>
+      </c>
+      <c r="L12">
+        <v>0.078</v>
+      </c>
+      <c r="M12">
+        <v>0.01484594</v>
+      </c>
+      <c r="N12">
+        <v>0.06315406</v>
+      </c>
+      <c r="O12">
+        <v>0.0119992714</v>
+      </c>
+      <c r="P12">
+        <v>0.0511547886</v>
+      </c>
+      <c r="Q12">
+        <v>-0.0138452114</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06556684299870293</v>
+      </c>
+      <c r="T12">
+        <v>1.015407956624312</v>
+      </c>
+      <c r="U12">
+        <v>0.0226</v>
+      </c>
+      <c r="V12">
+        <v>0.19</v>
+      </c>
+      <c r="W12">
+        <v>0.018306</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>5.253961689189098</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06083273888076148</v>
+      </c>
+      <c r="C13">
+        <v>5.863700506509723</v>
+      </c>
+      <c r="D13">
+        <v>6.480290506509723</v>
+      </c>
+      <c r="E13">
+        <v>0.6935899999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.72259</v>
+      </c>
+      <c r="G13">
+        <v>0.106</v>
+      </c>
+      <c r="H13">
+        <v>6.54</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.013</v>
+      </c>
+      <c r="K13">
+        <v>-0.065</v>
+      </c>
+      <c r="L13">
+        <v>0.078</v>
+      </c>
+      <c r="M13">
+        <v>0.016330534</v>
+      </c>
+      <c r="N13">
+        <v>0.06166946600000001</v>
+      </c>
+      <c r="O13">
+        <v>0.01171719854</v>
+      </c>
+      <c r="P13">
+        <v>0.04995226746</v>
+      </c>
+      <c r="Q13">
+        <v>-0.01504773254</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0660888526750129</v>
+      </c>
+      <c r="T13">
+        <v>1.024828296393015</v>
+      </c>
+      <c r="U13">
+        <v>0.0226</v>
+      </c>
+      <c r="V13">
+        <v>0.19</v>
+      </c>
+      <c r="W13">
+        <v>0.018306</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>4.776328808353727</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06956046977517852</v>
+      </c>
+      <c r="C14">
+        <v>4.85944776596901</v>
+      </c>
+      <c r="D14">
+        <v>5.541727765969011</v>
+      </c>
+      <c r="E14">
+        <v>0.75928</v>
+      </c>
+      <c r="F14">
+        <v>0.78828</v>
+      </c>
+      <c r="G14">
+        <v>0.106</v>
+      </c>
+      <c r="H14">
+        <v>6.54</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.013</v>
+      </c>
+      <c r="K14">
+        <v>-0.065</v>
+      </c>
+      <c r="L14">
+        <v>0.078</v>
+      </c>
+      <c r="M14">
+        <v>0.08592252</v>
+      </c>
+      <c r="N14">
+        <v>-0.007922520000000002</v>
+      </c>
+      <c r="O14">
+        <v>-0.0015052788</v>
+      </c>
+      <c r="P14">
+        <v>-0.006417241200000002</v>
+      </c>
+      <c r="Q14">
+        <v>-0.07141724120000001</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06674604650513218</v>
+      </c>
+      <c r="T14">
+        <v>1.036688209062416</v>
+      </c>
+      <c r="U14">
+        <v>0.109</v>
+      </c>
+      <c r="V14">
+        <v>0.1724809747200152</v>
+      </c>
+      <c r="W14">
+        <v>0.09019957375551833</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.9077946037895537</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07055746977517854</v>
+      </c>
+      <c r="C15">
+        <v>4.70356300926507</v>
+      </c>
+      <c r="D15">
+        <v>5.45153300926507</v>
+      </c>
+      <c r="E15">
+        <v>0.82497</v>
+      </c>
+      <c r="F15">
+        <v>0.85397</v>
+      </c>
+      <c r="G15">
+        <v>0.106</v>
+      </c>
+      <c r="H15">
+        <v>6.54</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.013</v>
+      </c>
+      <c r="K15">
+        <v>-0.065</v>
+      </c>
+      <c r="L15">
+        <v>0.078</v>
+      </c>
+      <c r="M15">
+        <v>0.09308273</v>
+      </c>
+      <c r="N15">
+        <v>-0.01508273</v>
+      </c>
+      <c r="O15">
+        <v>-0.0028657187</v>
+      </c>
+      <c r="P15">
+        <v>-0.0122170113</v>
+      </c>
+      <c r="Q15">
+        <v>-0.0772170113</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06740634589024866</v>
+      </c>
+      <c r="T15">
+        <v>1.048604165488421</v>
+      </c>
+      <c r="U15">
+        <v>0.109</v>
+      </c>
+      <c r="V15">
+        <v>0.1592132074338602</v>
+      </c>
+      <c r="W15">
+        <v>0.09164576038970924</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.8379642496518956</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07616023868956413</v>
+      </c>
+      <c r="C16">
+        <v>4.181044253061052</v>
+      </c>
+      <c r="D16">
+        <v>4.994704253061053</v>
+      </c>
+      <c r="E16">
+        <v>0.89066</v>
+      </c>
+      <c r="F16">
+        <v>0.91966</v>
+      </c>
+      <c r="G16">
+        <v>0.106</v>
+      </c>
+      <c r="H16">
+        <v>6.54</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.013</v>
+      </c>
+      <c r="K16">
+        <v>-0.065</v>
+      </c>
+      <c r="L16">
+        <v>0.078</v>
+      </c>
+      <c r="M16">
+        <v>0.128936332</v>
+      </c>
+      <c r="N16">
+        <v>-0.05093633199999999</v>
+      </c>
+      <c r="O16">
+        <v>-0.009677903079999998</v>
+      </c>
+      <c r="P16">
+        <v>-0.04125842891999999</v>
+      </c>
+      <c r="Q16">
+        <v>-0.10625842892</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06835847655686271</v>
+      </c>
+      <c r="T16">
+        <v>1.065786594839366</v>
+      </c>
+      <c r="U16">
+        <v>0.1402</v>
+      </c>
+      <c r="V16">
+        <v>0.1149404498337986</v>
+      </c>
+      <c r="W16">
+        <v>0.1240853489333014</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.604949735967361</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07746923868956412</v>
+      </c>
+      <c r="C17">
+        <v>4.019444895806375</v>
+      </c>
+      <c r="D17">
+        <v>4.898794895806375</v>
+      </c>
+      <c r="E17">
+        <v>0.9563499999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.9853499999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.106</v>
+      </c>
+      <c r="H17">
+        <v>6.54</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.013</v>
+      </c>
+      <c r="K17">
+        <v>-0.065</v>
+      </c>
+      <c r="L17">
+        <v>0.078</v>
+      </c>
+      <c r="M17">
+        <v>0.13814607</v>
+      </c>
+      <c r="N17">
+        <v>-0.06014606999999998</v>
+      </c>
+      <c r="O17">
+        <v>-0.0114277533</v>
+      </c>
+      <c r="P17">
+        <v>-0.04871831669999999</v>
+      </c>
+      <c r="Q17">
+        <v>-0.1137183167</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06905328216341404</v>
+      </c>
+      <c r="T17">
+        <v>1.078325260661005</v>
+      </c>
+      <c r="U17">
+        <v>0.1402</v>
+      </c>
+      <c r="V17">
+        <v>0.107277753178212</v>
+      </c>
+      <c r="W17">
+        <v>0.1251596590044147</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.564619753569537</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07877823868956413</v>
+      </c>
+      <c r="C18">
+        <v>3.86145948591174</v>
+      </c>
+      <c r="D18">
+        <v>4.80649948591174</v>
+      </c>
+      <c r="E18">
+        <v>1.02204</v>
+      </c>
+      <c r="F18">
+        <v>1.05104</v>
+      </c>
+      <c r="G18">
+        <v>0.106</v>
+      </c>
+      <c r="H18">
+        <v>6.54</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.013</v>
+      </c>
+      <c r="K18">
+        <v>-0.065</v>
+      </c>
+      <c r="L18">
+        <v>0.078</v>
+      </c>
+      <c r="M18">
+        <v>0.147355808</v>
+      </c>
+      <c r="N18">
+        <v>-0.06935580799999998</v>
+      </c>
+      <c r="O18">
+        <v>-0.01317760352</v>
+      </c>
+      <c r="P18">
+        <v>-0.05617820447999998</v>
+      </c>
+      <c r="Q18">
+        <v>-0.12117820448</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06976463076059754</v>
+      </c>
+      <c r="T18">
+        <v>1.091162466145065</v>
+      </c>
+      <c r="U18">
+        <v>0.1402</v>
+      </c>
+      <c r="V18">
+        <v>0.1005728936045738</v>
+      </c>
+      <c r="W18">
+        <v>0.1260996803166388</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.529331018971441</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08767893992128939</v>
+      </c>
+      <c r="C19">
+        <v>3.249944090244183</v>
+      </c>
+      <c r="D19">
+        <v>4.260674090244183</v>
+      </c>
+      <c r="E19">
+        <v>1.08773</v>
+      </c>
+      <c r="F19">
+        <v>1.11673</v>
+      </c>
+      <c r="G19">
+        <v>0.106</v>
+      </c>
+      <c r="H19">
+        <v>6.54</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.013</v>
+      </c>
+      <c r="K19">
+        <v>-0.065</v>
+      </c>
+      <c r="L19">
+        <v>0.078</v>
+      </c>
+      <c r="M19">
+        <v>0.205143301</v>
+      </c>
+      <c r="N19">
+        <v>-0.127143301</v>
+      </c>
+      <c r="O19">
+        <v>-0.02415722719</v>
+      </c>
+      <c r="P19">
+        <v>-0.10298607381</v>
+      </c>
+      <c r="Q19">
+        <v>-0.16798607381</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07073010972364721</v>
+      </c>
+      <c r="T19">
+        <v>1.108585782769682</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.07224218352613912</v>
+      </c>
+      <c r="W19">
+        <v>0.1704291108862483</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.380222018558627</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08942293992128938</v>
+      </c>
+      <c r="C20">
+        <v>3.091513913452299</v>
+      </c>
+      <c r="D20">
+        <v>4.167933913452299</v>
+      </c>
+      <c r="E20">
+        <v>1.15342</v>
+      </c>
+      <c r="F20">
+        <v>1.18242</v>
+      </c>
+      <c r="G20">
+        <v>0.106</v>
+      </c>
+      <c r="H20">
+        <v>6.54</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.013</v>
+      </c>
+      <c r="K20">
+        <v>-0.065</v>
+      </c>
+      <c r="L20">
+        <v>0.078</v>
+      </c>
+      <c r="M20">
+        <v>0.217210554</v>
+      </c>
+      <c r="N20">
+        <v>-0.139210554</v>
+      </c>
+      <c r="O20">
+        <v>-0.02645000526</v>
+      </c>
+      <c r="P20">
+        <v>-0.11276054874</v>
+      </c>
+      <c r="Q20">
+        <v>-0.17776054874</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07147925740320388</v>
+      </c>
+      <c r="T20">
+        <v>1.122105121583946</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.06822872888579806</v>
+      </c>
+      <c r="W20">
+        <v>0.1711663825036789</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.3590985730831477</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.09116693992128939</v>
+      </c>
+      <c r="C21">
+        <v>2.937034998756703</v>
+      </c>
+      <c r="D21">
+        <v>4.079144998756703</v>
+      </c>
+      <c r="E21">
+        <v>1.21911</v>
+      </c>
+      <c r="F21">
+        <v>1.24811</v>
+      </c>
+      <c r="G21">
+        <v>0.106</v>
+      </c>
+      <c r="H21">
+        <v>6.54</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.013</v>
+      </c>
+      <c r="K21">
+        <v>-0.065</v>
+      </c>
+      <c r="L21">
+        <v>0.078</v>
+      </c>
+      <c r="M21">
+        <v>0.229277807</v>
+      </c>
+      <c r="N21">
+        <v>-0.151277807</v>
+      </c>
+      <c r="O21">
+        <v>-0.02874278333</v>
+      </c>
+      <c r="P21">
+        <v>-0.12253502367</v>
+      </c>
+      <c r="Q21">
+        <v>-0.18753502367</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07224690255632986</v>
+      </c>
+      <c r="T21">
+        <v>1.135958271233131</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.06463774315496659</v>
+      </c>
+      <c r="W21">
+        <v>0.1718260465824326</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.3401986481840347</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09291093992128938</v>
+      </c>
+      <c r="C22">
+        <v>2.786260093784594</v>
+      </c>
+      <c r="D22">
+        <v>3.994060093784594</v>
+      </c>
+      <c r="E22">
+        <v>1.2848</v>
+      </c>
+      <c r="F22">
+        <v>1.3138</v>
+      </c>
+      <c r="G22">
+        <v>0.106</v>
+      </c>
+      <c r="H22">
+        <v>6.54</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.013</v>
+      </c>
+      <c r="K22">
+        <v>-0.065</v>
+      </c>
+      <c r="L22">
+        <v>0.078</v>
+      </c>
+      <c r="M22">
+        <v>0.24134506</v>
+      </c>
+      <c r="N22">
+        <v>-0.16334506</v>
+      </c>
+      <c r="O22">
+        <v>-0.03103556140000001</v>
+      </c>
+      <c r="P22">
+        <v>-0.1323094986</v>
+      </c>
+      <c r="Q22">
+        <v>-0.1973094986</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07303373883828397</v>
+      </c>
+      <c r="T22">
+        <v>1.150157749623545</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.06140585599721825</v>
+      </c>
+      <c r="W22">
+        <v>0.172419744253311</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.3231887157748329</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09465493992128939</v>
+      </c>
+      <c r="C23">
+        <v>2.638962153927994</v>
+      </c>
+      <c r="D23">
+        <v>3.912452153927994</v>
+      </c>
+      <c r="E23">
+        <v>1.35049</v>
+      </c>
+      <c r="F23">
+        <v>1.37949</v>
+      </c>
+      <c r="G23">
+        <v>0.106</v>
+      </c>
+      <c r="H23">
+        <v>6.54</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.013</v>
+      </c>
+      <c r="K23">
+        <v>-0.065</v>
+      </c>
+      <c r="L23">
+        <v>0.078</v>
+      </c>
+      <c r="M23">
+        <v>0.253412313</v>
+      </c>
+      <c r="N23">
+        <v>-0.175412313</v>
+      </c>
+      <c r="O23">
+        <v>-0.03332833947</v>
+      </c>
+      <c r="P23">
+        <v>-0.14208397353</v>
+      </c>
+      <c r="Q23">
+        <v>-0.20708397353</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07384049502611036</v>
+      </c>
+      <c r="T23">
+        <v>1.164716708479539</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.05848176761639833</v>
+      </c>
+      <c r="W23">
+        <v>0.1729568992888676</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.3077987769284124</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09639893992128938</v>
+      </c>
+      <c r="C24">
+        <v>2.494932319222582</v>
+      </c>
+      <c r="D24">
+        <v>3.834112319222582</v>
+      </c>
+      <c r="E24">
+        <v>1.41618</v>
+      </c>
+      <c r="F24">
+        <v>1.44518</v>
+      </c>
+      <c r="G24">
+        <v>0.106</v>
+      </c>
+      <c r="H24">
+        <v>6.54</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.013</v>
+      </c>
+      <c r="K24">
+        <v>-0.065</v>
+      </c>
+      <c r="L24">
+        <v>0.078</v>
+      </c>
+      <c r="M24">
+        <v>0.265479566</v>
+      </c>
+      <c r="N24">
+        <v>-0.187479566</v>
+      </c>
+      <c r="O24">
+        <v>-0.03562111754</v>
+      </c>
+      <c r="P24">
+        <v>-0.15185844846</v>
+      </c>
+      <c r="Q24">
+        <v>-0.21685844846</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07466793727003485</v>
+      </c>
+      <c r="T24">
+        <v>1.179648973972867</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.05582350545201659</v>
+      </c>
+      <c r="W24">
+        <v>0.1734452220484645</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.2938079234316664</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09814293992128939</v>
+      </c>
+      <c r="C25">
+        <v>2.353978129511522</v>
+      </c>
+      <c r="D25">
+        <v>3.758848129511522</v>
+      </c>
+      <c r="E25">
+        <v>1.48187</v>
+      </c>
+      <c r="F25">
+        <v>1.51087</v>
+      </c>
+      <c r="G25">
+        <v>0.106</v>
+      </c>
+      <c r="H25">
+        <v>6.54</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.013</v>
+      </c>
+      <c r="K25">
+        <v>-0.065</v>
+      </c>
+      <c r="L25">
+        <v>0.078</v>
+      </c>
+      <c r="M25">
+        <v>0.2775468190000001</v>
+      </c>
+      <c r="N25">
+        <v>-0.199546819</v>
+      </c>
+      <c r="O25">
+        <v>-0.03791389561000001</v>
+      </c>
+      <c r="P25">
+        <v>-0.16163292339</v>
+      </c>
+      <c r="Q25">
+        <v>-0.22663292339</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07551687152029504</v>
+      </c>
+      <c r="T25">
+        <v>1.194969090517969</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.05339639651932022</v>
+      </c>
+      <c r="W25">
+        <v>0.1738910819594009</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.2810336658911591</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09988693992128939</v>
+      </c>
+      <c r="C26">
+        <v>2.215921945781681</v>
+      </c>
+      <c r="D26">
+        <v>3.686481945781681</v>
+      </c>
+      <c r="E26">
+        <v>1.54756</v>
+      </c>
+      <c r="F26">
+        <v>1.57656</v>
+      </c>
+      <c r="G26">
+        <v>0.106</v>
+      </c>
+      <c r="H26">
+        <v>6.54</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.013</v>
+      </c>
+      <c r="K26">
+        <v>-0.065</v>
+      </c>
+      <c r="L26">
+        <v>0.078</v>
+      </c>
+      <c r="M26">
+        <v>0.289614072</v>
+      </c>
+      <c r="N26">
+        <v>-0.211614072</v>
+      </c>
+      <c r="O26">
+        <v>-0.04020667368</v>
+      </c>
+      <c r="P26">
+        <v>-0.17140739832</v>
+      </c>
+      <c r="Q26">
+        <v>-0.23640739832</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07638814614556208</v>
+      </c>
+      <c r="T26">
+        <v>1.210692368024784</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.05117154666434855</v>
+      </c>
+      <c r="W26">
+        <v>0.1742997868777592</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.2693239298123609</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1016309399212894</v>
+      </c>
+      <c r="C27">
+        <v>2.080599550412111</v>
+      </c>
+      <c r="D27">
+        <v>3.616849550412111</v>
+      </c>
+      <c r="E27">
+        <v>1.61325</v>
+      </c>
+      <c r="F27">
+        <v>1.64225</v>
+      </c>
+      <c r="G27">
+        <v>0.106</v>
+      </c>
+      <c r="H27">
+        <v>6.54</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.013</v>
+      </c>
+      <c r="K27">
+        <v>-0.065</v>
+      </c>
+      <c r="L27">
+        <v>0.078</v>
+      </c>
+      <c r="M27">
+        <v>0.301681325</v>
+      </c>
+      <c r="N27">
+        <v>-0.223681325</v>
+      </c>
+      <c r="O27">
+        <v>-0.04249945175</v>
+      </c>
+      <c r="P27">
+        <v>-0.18118187325</v>
+      </c>
+      <c r="Q27">
+        <v>-0.24618187325</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07728265476083623</v>
+      </c>
+      <c r="T27">
+        <v>1.226834932931781</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.04912468479777461</v>
+      </c>
+      <c r="W27">
+        <v>0.1746757954026488</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.2585509726198664</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1033749399212894</v>
+      </c>
+      <c r="C28">
+        <v>1.947858903117557</v>
+      </c>
+      <c r="D28">
+        <v>3.549798903117557</v>
+      </c>
+      <c r="E28">
+        <v>1.67894</v>
+      </c>
+      <c r="F28">
+        <v>1.70794</v>
+      </c>
+      <c r="G28">
+        <v>0.106</v>
+      </c>
+      <c r="H28">
+        <v>6.54</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.013</v>
+      </c>
+      <c r="K28">
+        <v>-0.065</v>
+      </c>
+      <c r="L28">
+        <v>0.078</v>
+      </c>
+      <c r="M28">
+        <v>0.313748578</v>
+      </c>
+      <c r="N28">
+        <v>-0.235748578</v>
+      </c>
+      <c r="O28">
+        <v>-0.04479222982</v>
+      </c>
+      <c r="P28">
+        <v>-0.19095634818</v>
+      </c>
+      <c r="Q28">
+        <v>-0.25595634818</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07820133928463133</v>
+      </c>
+      <c r="T28">
+        <v>1.243413783376806</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.04723527384401404</v>
+      </c>
+      <c r="W28">
+        <v>0.1750228801948546</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.2486067044421792</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1051189399212894</v>
+      </c>
+      <c r="C29">
+        <v>1.817559032750358</v>
+      </c>
+      <c r="D29">
+        <v>3.485189032750358</v>
+      </c>
+      <c r="E29">
+        <v>1.74463</v>
+      </c>
+      <c r="F29">
+        <v>1.77363</v>
+      </c>
+      <c r="G29">
+        <v>0.106</v>
+      </c>
+      <c r="H29">
+        <v>6.54</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.013</v>
+      </c>
+      <c r="K29">
+        <v>-0.065</v>
+      </c>
+      <c r="L29">
+        <v>0.078</v>
+      </c>
+      <c r="M29">
+        <v>0.325815831</v>
+      </c>
+      <c r="N29">
+        <v>-0.247815831</v>
+      </c>
+      <c r="O29">
+        <v>-0.04708500789</v>
+      </c>
+      <c r="P29">
+        <v>-0.20073082311</v>
+      </c>
+      <c r="Q29">
+        <v>-0.26573082311</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07914519324743449</v>
+      </c>
+      <c r="T29">
+        <v>1.260446848902515</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.04548581925719871</v>
+      </c>
+      <c r="W29">
+        <v>0.1753442550024526</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.2393990487220985</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1068629399212894</v>
+      </c>
+      <c r="C30">
+        <v>1.689569047960843</v>
+      </c>
+      <c r="D30">
+        <v>3.422889047960843</v>
+      </c>
+      <c r="E30">
+        <v>1.81032</v>
+      </c>
+      <c r="F30">
+        <v>1.83932</v>
+      </c>
+      <c r="G30">
+        <v>0.106</v>
+      </c>
+      <c r="H30">
+        <v>6.54</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.013</v>
+      </c>
+      <c r="K30">
+        <v>-0.065</v>
+      </c>
+      <c r="L30">
+        <v>0.078</v>
+      </c>
+      <c r="M30">
+        <v>0.337883084</v>
+      </c>
+      <c r="N30">
+        <v>-0.259883084</v>
+      </c>
+      <c r="O30">
+        <v>-0.04937778596</v>
+      </c>
+      <c r="P30">
+        <v>-0.21050529804</v>
+      </c>
+      <c r="Q30">
+        <v>-0.27550529804</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08011526537587109</v>
+      </c>
+      <c r="T30">
+        <v>1.277953055137272</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.04386132571229875</v>
+      </c>
+      <c r="W30">
+        <v>0.1756426744666507</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.2308490826963093</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1086069399212894</v>
+      </c>
+      <c r="C31">
+        <v>1.563767252104732</v>
+      </c>
+      <c r="D31">
+        <v>3.362777252104732</v>
+      </c>
+      <c r="E31">
+        <v>1.87601</v>
+      </c>
+      <c r="F31">
+        <v>1.90501</v>
+      </c>
+      <c r="G31">
+        <v>0.106</v>
+      </c>
+      <c r="H31">
+        <v>6.54</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.013</v>
+      </c>
+      <c r="K31">
+        <v>-0.065</v>
+      </c>
+      <c r="L31">
+        <v>0.078</v>
+      </c>
+      <c r="M31">
+        <v>0.349950337</v>
+      </c>
+      <c r="N31">
+        <v>-0.271950337</v>
+      </c>
+      <c r="O31">
+        <v>-0.05167056403</v>
+      </c>
+      <c r="P31">
+        <v>-0.22027977297</v>
+      </c>
+      <c r="Q31">
+        <v>-0.28527977297</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08111266347975658</v>
+      </c>
+      <c r="T31">
+        <v>1.295952393942023</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.04234886620497811</v>
+      </c>
+      <c r="W31">
+        <v>0.1759205132781455</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.2228887694998848</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1103509399212894</v>
+      </c>
+      <c r="C32">
+        <v>1.440040349803389</v>
+      </c>
+      <c r="D32">
+        <v>3.304740349803389</v>
+      </c>
+      <c r="E32">
+        <v>1.9417</v>
+      </c>
+      <c r="F32">
+        <v>1.9707</v>
+      </c>
+      <c r="G32">
+        <v>0.106</v>
+      </c>
+      <c r="H32">
+        <v>6.54</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.013</v>
+      </c>
+      <c r="K32">
+        <v>-0.065</v>
+      </c>
+      <c r="L32">
+        <v>0.078</v>
+      </c>
+      <c r="M32">
+        <v>0.36201759</v>
+      </c>
+      <c r="N32">
+        <v>-0.28401759</v>
+      </c>
+      <c r="O32">
+        <v>-0.0539633421</v>
+      </c>
+      <c r="P32">
+        <v>-0.2300542479</v>
+      </c>
+      <c r="Q32">
+        <v>-0.2950542479</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08213855867232454</v>
+      </c>
+      <c r="T32">
+        <v>1.314465999569766</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.04093723733147884</v>
+      </c>
+      <c r="W32">
+        <v>0.1761798295022073</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.2154591438498886</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1120949399212894</v>
+      </c>
+      <c r="C33">
+        <v>1.318282734272214</v>
+      </c>
+      <c r="D33">
+        <v>3.248672734272214</v>
+      </c>
+      <c r="E33">
+        <v>2.00739</v>
+      </c>
+      <c r="F33">
+        <v>2.03639</v>
+      </c>
+      <c r="G33">
+        <v>0.106</v>
+      </c>
+      <c r="H33">
+        <v>6.54</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.013</v>
+      </c>
+      <c r="K33">
+        <v>-0.065</v>
+      </c>
+      <c r="L33">
+        <v>0.078</v>
+      </c>
+      <c r="M33">
+        <v>0.374084843</v>
+      </c>
+      <c r="N33">
+        <v>-0.296084843</v>
+      </c>
+      <c r="O33">
+        <v>-0.05625612017</v>
+      </c>
+      <c r="P33">
+        <v>-0.23982872283</v>
+      </c>
+      <c r="Q33">
+        <v>-0.30482872283</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08319418995743069</v>
+      </c>
+      <c r="T33">
+        <v>1.333516231447589</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.0396166812885279</v>
+      </c>
+      <c r="W33">
+        <v>0.1764224156472974</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.2085088488869891</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1138389399212894</v>
+      </c>
+      <c r="C34">
+        <v>1.198395845985069</v>
+      </c>
+      <c r="D34">
+        <v>3.194475845985069</v>
+      </c>
+      <c r="E34">
+        <v>2.07308</v>
+      </c>
+      <c r="F34">
+        <v>2.10208</v>
+      </c>
+      <c r="G34">
+        <v>0.106</v>
+      </c>
+      <c r="H34">
+        <v>6.54</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.013</v>
+      </c>
+      <c r="K34">
+        <v>-0.065</v>
+      </c>
+      <c r="L34">
+        <v>0.078</v>
+      </c>
+      <c r="M34">
+        <v>0.386152096</v>
+      </c>
+      <c r="N34">
+        <v>-0.308152096</v>
+      </c>
+      <c r="O34">
+        <v>-0.05854889824</v>
+      </c>
+      <c r="P34">
+        <v>-0.24960319776</v>
+      </c>
+      <c r="Q34">
+        <v>-0.31460319776</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08428086922151055</v>
+      </c>
+      <c r="T34">
+        <v>1.353126764262994</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.03837865999826141</v>
+      </c>
+      <c r="W34">
+        <v>0.1766498401583194</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.2019929473592706</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1155829399212894</v>
+      </c>
+      <c r="C35">
+        <v>1.080287594480887</v>
+      </c>
+      <c r="D35">
+        <v>3.142057594480887</v>
+      </c>
+      <c r="E35">
+        <v>2.13877</v>
+      </c>
+      <c r="F35">
+        <v>2.16777</v>
+      </c>
+      <c r="G35">
+        <v>0.106</v>
+      </c>
+      <c r="H35">
+        <v>6.54</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.013</v>
+      </c>
+      <c r="K35">
+        <v>-0.065</v>
+      </c>
+      <c r="L35">
+        <v>0.078</v>
+      </c>
+      <c r="M35">
+        <v>0.398219349</v>
+      </c>
+      <c r="N35">
+        <v>-0.320219349</v>
+      </c>
+      <c r="O35">
+        <v>-0.06084167631</v>
+      </c>
+      <c r="P35">
+        <v>-0.25937767269</v>
+      </c>
+      <c r="Q35">
+        <v>-0.32437767269</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08539998667257788</v>
+      </c>
+      <c r="T35">
+        <v>1.373322686117666</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.0372156703013444</v>
+      </c>
+      <c r="W35">
+        <v>0.176863481365643</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.1958719489544443</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1173269399212894</v>
+      </c>
+      <c r="C36">
+        <v>0.9638718361768248</v>
+      </c>
+      <c r="D36">
+        <v>3.091331836176825</v>
+      </c>
+      <c r="E36">
+        <v>2.20446</v>
+      </c>
+      <c r="F36">
+        <v>2.23346</v>
+      </c>
+      <c r="G36">
+        <v>0.106</v>
+      </c>
+      <c r="H36">
+        <v>6.54</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.013</v>
+      </c>
+      <c r="K36">
+        <v>-0.065</v>
+      </c>
+      <c r="L36">
+        <v>0.078</v>
+      </c>
+      <c r="M36">
+        <v>0.410286602</v>
+      </c>
+      <c r="N36">
+        <v>-0.332286602</v>
+      </c>
+      <c r="O36">
+        <v>-0.06313445438</v>
+      </c>
+      <c r="P36">
+        <v>-0.26915214762</v>
+      </c>
+      <c r="Q36">
+        <v>-0.33415214762</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08655301677367755</v>
+      </c>
+      <c r="T36">
+        <v>1.394130605604297</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.03612109176306956</v>
+      </c>
+      <c r="W36">
+        <v>0.1770645554431241</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.1901110092793136</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1190709399212894</v>
+      </c>
+      <c r="C37">
+        <v>0.8490679019592799</v>
+      </c>
+      <c r="D37">
+        <v>3.04221790195928</v>
+      </c>
+      <c r="E37">
+        <v>2.27015</v>
+      </c>
+      <c r="F37">
+        <v>2.29915</v>
+      </c>
+      <c r="G37">
+        <v>0.106</v>
+      </c>
+      <c r="H37">
+        <v>6.54</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.013</v>
+      </c>
+      <c r="K37">
+        <v>-0.065</v>
+      </c>
+      <c r="L37">
+        <v>0.078</v>
+      </c>
+      <c r="M37">
+        <v>0.422353855</v>
+      </c>
+      <c r="N37">
+        <v>-0.344353855</v>
+      </c>
+      <c r="O37">
+        <v>-0.06542723245</v>
+      </c>
+      <c r="P37">
+        <v>-0.27892662255</v>
+      </c>
+      <c r="Q37">
+        <v>-0.34392662255</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08774152472404181</v>
+      </c>
+      <c r="T37">
+        <v>1.41557876876744</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.035089060569839</v>
+      </c>
+      <c r="W37">
+        <v>0.1772541395733206</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.1846792661570474</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1208149399212894</v>
+      </c>
+      <c r="C38">
+        <v>0.7358001691033782</v>
+      </c>
+      <c r="D38">
+        <v>2.994640169103378</v>
+      </c>
+      <c r="E38">
+        <v>2.33584</v>
+      </c>
+      <c r="F38">
+        <v>2.36484</v>
+      </c>
+      <c r="G38">
+        <v>0.106</v>
+      </c>
+      <c r="H38">
+        <v>6.54</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.013</v>
+      </c>
+      <c r="K38">
+        <v>-0.065</v>
+      </c>
+      <c r="L38">
+        <v>0.078</v>
+      </c>
+      <c r="M38">
+        <v>0.434421108</v>
+      </c>
+      <c r="N38">
+        <v>-0.356421108</v>
+      </c>
+      <c r="O38">
+        <v>-0.06772001052</v>
+      </c>
+      <c r="P38">
+        <v>-0.28870109748</v>
+      </c>
+      <c r="Q38">
+        <v>-0.35370109748</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08896717354785498</v>
+      </c>
+      <c r="T38">
+        <v>1.437697187029432</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.03411436444289903</v>
+      </c>
+      <c r="W38">
+        <v>0.1774331912518395</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.1795492865415739</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1225589399212894</v>
+      </c>
+      <c r="C39">
+        <v>0.6239976727428633</v>
+      </c>
+      <c r="D39">
+        <v>2.948527672742864</v>
+      </c>
+      <c r="E39">
+        <v>2.40153</v>
+      </c>
+      <c r="F39">
+        <v>2.43053</v>
+      </c>
+      <c r="G39">
+        <v>0.106</v>
+      </c>
+      <c r="H39">
+        <v>6.54</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.013</v>
+      </c>
+      <c r="K39">
+        <v>-0.065</v>
+      </c>
+      <c r="L39">
+        <v>0.078</v>
+      </c>
+      <c r="M39">
+        <v>0.446488361</v>
+      </c>
+      <c r="N39">
+        <v>-0.368488361</v>
+      </c>
+      <c r="O39">
+        <v>-0.07001278859</v>
+      </c>
+      <c r="P39">
+        <v>-0.29847557241</v>
+      </c>
+      <c r="Q39">
+        <v>-0.36347557241</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09023173185813839</v>
+      </c>
+      <c r="T39">
+        <v>1.46051777729974</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.03319235459309095</v>
+      </c>
+      <c r="W39">
+        <v>0.1776025644612492</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.1746966031215313</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1243029399212894</v>
+      </c>
+      <c r="C40">
+        <v>0.5135937526919232</v>
+      </c>
+      <c r="D40">
+        <v>2.903813752691923</v>
+      </c>
+      <c r="E40">
+        <v>2.46722</v>
+      </c>
+      <c r="F40">
+        <v>2.49622</v>
+      </c>
+      <c r="G40">
+        <v>0.106</v>
+      </c>
+      <c r="H40">
+        <v>6.54</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.013</v>
+      </c>
+      <c r="K40">
+        <v>-0.065</v>
+      </c>
+      <c r="L40">
+        <v>0.078</v>
+      </c>
+      <c r="M40">
+        <v>0.458555614</v>
+      </c>
+      <c r="N40">
+        <v>-0.380555614</v>
+      </c>
+      <c r="O40">
+        <v>-0.07230556666</v>
+      </c>
+      <c r="P40">
+        <v>-0.30825004734</v>
+      </c>
+      <c r="Q40">
+        <v>-0.37325004734</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.09153708237197933</v>
+      </c>
+      <c r="T40">
+        <v>1.484074515643284</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.0323188715774833</v>
+      </c>
+      <c r="W40">
+        <v>0.1777630232912163</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.1700993240920173</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1260469399212894</v>
+      </c>
+      <c r="C41">
+        <v>0.4045257319223072</v>
+      </c>
+      <c r="D41">
+        <v>2.860435731922307</v>
+      </c>
+      <c r="E41">
+        <v>2.53291</v>
+      </c>
+      <c r="F41">
+        <v>2.56191</v>
+      </c>
+      <c r="G41">
+        <v>0.106</v>
+      </c>
+      <c r="H41">
+        <v>6.54</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.013</v>
+      </c>
+      <c r="K41">
+        <v>-0.065</v>
+      </c>
+      <c r="L41">
+        <v>0.078</v>
+      </c>
+      <c r="M41">
+        <v>0.4706228670000001</v>
+      </c>
+      <c r="N41">
+        <v>-0.392622867</v>
+      </c>
+      <c r="O41">
+        <v>-0.07459834473000002</v>
+      </c>
+      <c r="P41">
+        <v>-0.31802452227</v>
+      </c>
+      <c r="Q41">
+        <v>-0.38302452227</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.09288523126332325</v>
+      </c>
+      <c r="T41">
+        <v>1.508403606063666</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.03149018256267603</v>
+      </c>
+      <c r="W41">
+        <v>0.1779152534632364</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.1657378029614528</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1277909399212894</v>
+      </c>
+      <c r="C42">
+        <v>0.2967346234342974</v>
+      </c>
+      <c r="D42">
+        <v>2.818334623434298</v>
+      </c>
+      <c r="E42">
+        <v>2.5986</v>
+      </c>
+      <c r="F42">
+        <v>2.6276</v>
+      </c>
+      <c r="G42">
+        <v>0.106</v>
+      </c>
+      <c r="H42">
+        <v>6.54</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.013</v>
+      </c>
+      <c r="K42">
+        <v>-0.065</v>
+      </c>
+      <c r="L42">
+        <v>0.078</v>
+      </c>
+      <c r="M42">
+        <v>0.4826901200000001</v>
+      </c>
+      <c r="N42">
+        <v>-0.40469012</v>
+      </c>
+      <c r="O42">
+        <v>-0.0768911228</v>
+      </c>
+      <c r="P42">
+        <v>-0.3277989972000001</v>
+      </c>
+      <c r="Q42">
+        <v>-0.3927989972000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.0942783184510453</v>
+      </c>
+      <c r="T42">
+        <v>1.533543666164727</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.03070292799860912</v>
+      </c>
+      <c r="W42">
+        <v>0.1780598721266555</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.1615943578874165</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1295349399212894</v>
+      </c>
+      <c r="C43">
+        <v>0.1901648626385826</v>
+      </c>
+      <c r="D43">
+        <v>2.777454862638583</v>
+      </c>
+      <c r="E43">
+        <v>2.66429</v>
+      </c>
+      <c r="F43">
+        <v>2.69329</v>
+      </c>
+      <c r="G43">
+        <v>0.106</v>
+      </c>
+      <c r="H43">
+        <v>6.54</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.013</v>
+      </c>
+      <c r="K43">
+        <v>-0.065</v>
+      </c>
+      <c r="L43">
+        <v>0.078</v>
+      </c>
+      <c r="M43">
+        <v>0.4947573730000001</v>
+      </c>
+      <c r="N43">
+        <v>-0.416757373</v>
+      </c>
+      <c r="O43">
+        <v>-0.07918390087</v>
+      </c>
+      <c r="P43">
+        <v>-0.3375734721300001</v>
+      </c>
+      <c r="Q43">
+        <v>-0.4025734721300001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.09571862893326641</v>
+      </c>
+      <c r="T43">
+        <v>1.559535931692942</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.02995407609620402</v>
+      </c>
+      <c r="W43">
+        <v>0.1781974362211273</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.1576530320852844</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1312789399212894</v>
+      </c>
+      <c r="C44">
+        <v>0.0847640626958448</v>
+      </c>
+      <c r="D44">
+        <v>2.737744062695845</v>
+      </c>
+      <c r="E44">
+        <v>2.72998</v>
+      </c>
+      <c r="F44">
+        <v>2.75898</v>
+      </c>
+      <c r="G44">
+        <v>0.106</v>
+      </c>
+      <c r="H44">
+        <v>6.54</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.013</v>
+      </c>
+      <c r="K44">
+        <v>-0.065</v>
+      </c>
+      <c r="L44">
+        <v>0.078</v>
+      </c>
+      <c r="M44">
+        <v>0.506824626</v>
+      </c>
+      <c r="N44">
+        <v>-0.428824626</v>
+      </c>
+      <c r="O44">
+        <v>-0.08147667894000001</v>
+      </c>
+      <c r="P44">
+        <v>-0.34734794706</v>
+      </c>
+      <c r="Q44">
+        <v>-0.41234794706</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.09720860529418479</v>
+      </c>
+      <c r="T44">
+        <v>1.586424482239372</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.02924088380819917</v>
+      </c>
+      <c r="W44">
+        <v>0.1783284496444338</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.1538993884642061</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1330229399212894</v>
+      </c>
+      <c r="C45">
+        <v>-0.01951720945125368</v>
+      </c>
+      <c r="D45">
+        <v>2.699152790548746</v>
+      </c>
+      <c r="E45">
+        <v>2.79567</v>
+      </c>
+      <c r="F45">
+        <v>2.82467</v>
+      </c>
+      <c r="G45">
+        <v>0.106</v>
+      </c>
+      <c r="H45">
+        <v>6.54</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.013</v>
+      </c>
+      <c r="K45">
+        <v>-0.065</v>
+      </c>
+      <c r="L45">
+        <v>0.078</v>
+      </c>
+      <c r="M45">
+        <v>0.518891879</v>
+      </c>
+      <c r="N45">
+        <v>-0.440891879</v>
+      </c>
+      <c r="O45">
+        <v>-0.08376945700999999</v>
+      </c>
+      <c r="P45">
+        <v>-0.35712242199</v>
+      </c>
+      <c r="Q45">
+        <v>-0.42212242199</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09875086152741611</v>
+      </c>
+      <c r="T45">
+        <v>1.614256490699712</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.02856086325452012</v>
+      </c>
+      <c r="W45">
+        <v>0.1784533694201447</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.150320332918527</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1347669399212894</v>
+      </c>
+      <c r="C46">
+        <v>-0.1227256383670308</v>
+      </c>
+      <c r="D46">
+        <v>2.661634361632969</v>
+      </c>
+      <c r="E46">
+        <v>2.86136</v>
+      </c>
+      <c r="F46">
+        <v>2.89036</v>
+      </c>
+      <c r="G46">
+        <v>0.106</v>
+      </c>
+      <c r="H46">
+        <v>6.54</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.013</v>
+      </c>
+      <c r="K46">
+        <v>-0.065</v>
+      </c>
+      <c r="L46">
+        <v>0.078</v>
+      </c>
+      <c r="M46">
+        <v>0.530959132</v>
+      </c>
+      <c r="N46">
+        <v>-0.452959132</v>
+      </c>
+      <c r="O46">
+        <v>-0.08606223507999999</v>
+      </c>
+      <c r="P46">
+        <v>-0.36689689692</v>
+      </c>
+      <c r="Q46">
+        <v>-0.43189689692</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1003481983404057</v>
+      </c>
+      <c r="T46">
+        <v>1.643082499462207</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.0279117527260083</v>
+      </c>
+      <c r="W46">
+        <v>0.1785726110242323</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.1469039617158332</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1365109399212894</v>
+      </c>
+      <c r="C47">
+        <v>-0.2249053485252932</v>
+      </c>
+      <c r="D47">
+        <v>2.625144651474707</v>
+      </c>
+      <c r="E47">
+        <v>2.92705</v>
+      </c>
+      <c r="F47">
+        <v>2.95605</v>
+      </c>
+      <c r="G47">
+        <v>0.106</v>
+      </c>
+      <c r="H47">
+        <v>6.54</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.013</v>
+      </c>
+      <c r="K47">
+        <v>-0.065</v>
+      </c>
+      <c r="L47">
+        <v>0.078</v>
+      </c>
+      <c r="M47">
+        <v>0.543026385</v>
+      </c>
+      <c r="N47">
+        <v>-0.465026385</v>
+      </c>
+      <c r="O47">
+        <v>-0.08835501314999999</v>
+      </c>
+      <c r="P47">
+        <v>-0.37667137185</v>
+      </c>
+      <c r="Q47">
+        <v>-0.44167137185</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.102003620128413</v>
+      </c>
+      <c r="T47">
+        <v>1.672956726725156</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.02729149155431923</v>
+      </c>
+      <c r="W47">
+        <v>0.1786865530014716</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.1436394292332591</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1382549399212894</v>
+      </c>
+      <c r="C48">
+        <v>-0.3260980774239797</v>
+      </c>
+      <c r="D48">
+        <v>2.589641922576021</v>
+      </c>
+      <c r="E48">
+        <v>2.99274</v>
+      </c>
+      <c r="F48">
+        <v>3.02174</v>
+      </c>
+      <c r="G48">
+        <v>0.106</v>
+      </c>
+      <c r="H48">
+        <v>6.54</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.013</v>
+      </c>
+      <c r="K48">
+        <v>-0.065</v>
+      </c>
+      <c r="L48">
+        <v>0.078</v>
+      </c>
+      <c r="M48">
+        <v>0.5550936380000001</v>
+      </c>
+      <c r="N48">
+        <v>-0.4770936380000001</v>
+      </c>
+      <c r="O48">
+        <v>-0.09064779122000002</v>
+      </c>
+      <c r="P48">
+        <v>-0.38644584678</v>
+      </c>
+      <c r="Q48">
+        <v>-0.45144584678</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1037203538344948</v>
+      </c>
+      <c r="T48">
+        <v>1.703937406849696</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.02669819825966011</v>
+      </c>
+      <c r="W48">
+        <v>0.1787955409797004</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.1405168329455795</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1399989399212894</v>
+      </c>
+      <c r="C49">
+        <v>-0.4263433348399341</v>
+      </c>
+      <c r="D49">
+        <v>2.555086665160066</v>
+      </c>
+      <c r="E49">
+        <v>3.05843</v>
+      </c>
+      <c r="F49">
+        <v>3.08743</v>
+      </c>
+      <c r="G49">
+        <v>0.106</v>
+      </c>
+      <c r="H49">
+        <v>6.54</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.013</v>
+      </c>
+      <c r="K49">
+        <v>-0.065</v>
+      </c>
+      <c r="L49">
+        <v>0.078</v>
+      </c>
+      <c r="M49">
+        <v>0.5671608910000001</v>
+      </c>
+      <c r="N49">
+        <v>-0.4891608910000001</v>
+      </c>
+      <c r="O49">
+        <v>-0.09294056929000002</v>
+      </c>
+      <c r="P49">
+        <v>-0.3962203217100001</v>
+      </c>
+      <c r="Q49">
+        <v>-0.4612203217100001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1055018699445796</v>
+      </c>
+      <c r="T49">
+        <v>1.736087169243087</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.02613015148817798</v>
+      </c>
+      <c r="W49">
+        <v>0.1788998911716217</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.1375271130956736</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1417429399212894</v>
+      </c>
+      <c r="C50">
+        <v>-0.5256785495013374</v>
+      </c>
+      <c r="D50">
+        <v>2.521441450498663</v>
+      </c>
+      <c r="E50">
+        <v>3.12412</v>
+      </c>
+      <c r="F50">
+        <v>3.15312</v>
+      </c>
+      <c r="G50">
+        <v>0.106</v>
+      </c>
+      <c r="H50">
+        <v>6.54</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.013</v>
+      </c>
+      <c r="K50">
+        <v>-0.065</v>
+      </c>
+      <c r="L50">
+        <v>0.078</v>
+      </c>
+      <c r="M50">
+        <v>0.579228144</v>
+      </c>
+      <c r="N50">
+        <v>-0.501228144</v>
+      </c>
+      <c r="O50">
+        <v>-0.09523334736000001</v>
+      </c>
+      <c r="P50">
+        <v>-0.40599479664</v>
+      </c>
+      <c r="Q50">
+        <v>-0.47099479664</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1073519059050523</v>
+      </c>
+      <c r="T50">
+        <v>1.7694734609593</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.02558577333217427</v>
+      </c>
+      <c r="W50">
+        <v>0.1789998934388796</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.1346619649061803</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1434869399212894</v>
+      </c>
+      <c r="C51">
+        <v>-0.6241392043225078</v>
+      </c>
+      <c r="D51">
+        <v>2.488670795677492</v>
+      </c>
+      <c r="E51">
+        <v>3.18981</v>
+      </c>
+      <c r="F51">
+        <v>3.21881</v>
+      </c>
+      <c r="G51">
+        <v>0.106</v>
+      </c>
+      <c r="H51">
+        <v>6.54</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.013</v>
+      </c>
+      <c r="K51">
+        <v>-0.065</v>
+      </c>
+      <c r="L51">
+        <v>0.078</v>
+      </c>
+      <c r="M51">
+        <v>0.591295397</v>
+      </c>
+      <c r="N51">
+        <v>-0.513295397</v>
+      </c>
+      <c r="O51">
+        <v>-0.09752612543000001</v>
+      </c>
+      <c r="P51">
+        <v>-0.41576927157</v>
+      </c>
+      <c r="Q51">
+        <v>-0.48076927157</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1092744922953474</v>
+      </c>
+      <c r="T51">
+        <v>1.804169019017326</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.02506361469274215</v>
+      </c>
+      <c r="W51">
+        <v>0.1790958139809433</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1319137615407481</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1452309399212894</v>
+      </c>
+      <c r="C52">
+        <v>-0.721758961228292</v>
+      </c>
+      <c r="D52">
+        <v>2.456741038771708</v>
+      </c>
+      <c r="E52">
+        <v>3.2555</v>
+      </c>
+      <c r="F52">
+        <v>3.2845</v>
+      </c>
+      <c r="G52">
+        <v>0.106</v>
+      </c>
+      <c r="H52">
+        <v>6.54</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.013</v>
+      </c>
+      <c r="K52">
+        <v>-0.065</v>
+      </c>
+      <c r="L52">
+        <v>0.078</v>
+      </c>
+      <c r="M52">
+        <v>0.60336265</v>
+      </c>
+      <c r="N52">
+        <v>-0.52536265</v>
+      </c>
+      <c r="O52">
+        <v>-0.09981890350000001</v>
+      </c>
+      <c r="P52">
+        <v>-0.4255437465</v>
+      </c>
+      <c r="Q52">
+        <v>-0.4905437465</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1112739821412543</v>
+      </c>
+      <c r="T52">
+        <v>1.840252399397672</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.02456234239888731</v>
+      </c>
+      <c r="W52">
+        <v>0.1791878977013244</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.1292754863099331</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1469749399212894</v>
+      </c>
+      <c r="C53">
+        <v>-0.818569776491167</v>
+      </c>
+      <c r="D53">
+        <v>2.425620223508833</v>
+      </c>
+      <c r="E53">
+        <v>3.32119</v>
+      </c>
+      <c r="F53">
+        <v>3.35019</v>
+      </c>
+      <c r="G53">
+        <v>0.106</v>
+      </c>
+      <c r="H53">
+        <v>6.54</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.013</v>
+      </c>
+      <c r="K53">
+        <v>-0.065</v>
+      </c>
+      <c r="L53">
+        <v>0.078</v>
+      </c>
+      <c r="M53">
+        <v>0.615429903</v>
+      </c>
+      <c r="N53">
+        <v>-0.537429903</v>
+      </c>
+      <c r="O53">
+        <v>-0.10211168157</v>
+      </c>
+      <c r="P53">
+        <v>-0.43531822143</v>
+      </c>
+      <c r="Q53">
+        <v>-0.50031822143</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1133550838176065</v>
+      </c>
+      <c r="T53">
+        <v>1.877808570813952</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.02408072784204638</v>
+      </c>
+      <c r="W53">
+        <v>0.1792763702954161</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.1267406728528756</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1487189399212894</v>
+      </c>
+      <c r="C54">
+        <v>-0.9146020074117844</v>
+      </c>
+      <c r="D54">
+        <v>2.395277992588216</v>
+      </c>
+      <c r="E54">
+        <v>3.38688</v>
+      </c>
+      <c r="F54">
+        <v>3.41588</v>
+      </c>
+      <c r="G54">
+        <v>0.106</v>
+      </c>
+      <c r="H54">
+        <v>6.54</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.013</v>
+      </c>
+      <c r="K54">
+        <v>-0.065</v>
+      </c>
+      <c r="L54">
+        <v>0.078</v>
+      </c>
+      <c r="M54">
+        <v>0.627497156</v>
+      </c>
+      <c r="N54">
+        <v>-0.549497156</v>
+      </c>
+      <c r="O54">
+        <v>-0.10440445964</v>
+      </c>
+      <c r="P54">
+        <v>-0.44509269636</v>
+      </c>
+      <c r="Q54">
+        <v>-0.5100926963600001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1155228980638066</v>
+      </c>
+      <c r="T54">
+        <v>1.916929582705909</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.02361763692200702</v>
+      </c>
+      <c r="W54">
+        <v>0.1793614400974273</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.1243033522210896</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1504629399212894</v>
+      </c>
+      <c r="C55">
+        <v>-1.009884511091597</v>
+      </c>
+      <c r="D55">
+        <v>2.365685488908404</v>
+      </c>
+      <c r="E55">
+        <v>3.45257</v>
+      </c>
+      <c r="F55">
+        <v>3.48157</v>
+      </c>
+      <c r="G55">
+        <v>0.106</v>
+      </c>
+      <c r="H55">
+        <v>6.54</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.013</v>
+      </c>
+      <c r="K55">
+        <v>-0.065</v>
+      </c>
+      <c r="L55">
+        <v>0.078</v>
+      </c>
+      <c r="M55">
+        <v>0.639564409</v>
+      </c>
+      <c r="N55">
+        <v>-0.561564409</v>
+      </c>
+      <c r="O55">
+        <v>-0.10669723771</v>
+      </c>
+      <c r="P55">
+        <v>-0.45486717129</v>
+      </c>
+      <c r="Q55">
+        <v>-0.51986717129</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1177829597247387</v>
+      </c>
+      <c r="T55">
+        <v>1.957715318508162</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.02317202113102576</v>
+      </c>
+      <c r="W55">
+        <v>0.1794432997182306</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.1219580059527671</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1522069399212894</v>
+      </c>
+      <c r="C56">
+        <v>-1.104444735973108</v>
+      </c>
+      <c r="D56">
+        <v>2.336815264026892</v>
+      </c>
+      <c r="E56">
+        <v>3.51826</v>
+      </c>
+      <c r="F56">
+        <v>3.54726</v>
+      </c>
+      <c r="G56">
+        <v>0.106</v>
+      </c>
+      <c r="H56">
+        <v>6.54</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.013</v>
+      </c>
+      <c r="K56">
+        <v>-0.065</v>
+      </c>
+      <c r="L56">
+        <v>0.078</v>
+      </c>
+      <c r="M56">
+        <v>0.651631662</v>
+      </c>
+      <c r="N56">
+        <v>-0.573631662</v>
+      </c>
+      <c r="O56">
+        <v>-0.10899001578</v>
+      </c>
+      <c r="P56">
+        <v>-0.46464164622</v>
+      </c>
+      <c r="Q56">
+        <v>-0.52964164622</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1201412849361461</v>
+      </c>
+      <c r="T56">
+        <v>2.000274347171383</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.02274290962859936</v>
+      </c>
+      <c r="W56">
+        <v>0.1795221275012263</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.1196995243610491</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1539509399212894</v>
+      </c>
+      <c r="C57">
+        <v>-1.198308806758134</v>
+      </c>
+      <c r="D57">
+        <v>2.308641193241867</v>
+      </c>
+      <c r="E57">
+        <v>3.58395</v>
+      </c>
+      <c r="F57">
+        <v>3.61295</v>
+      </c>
+      <c r="G57">
+        <v>0.106</v>
+      </c>
+      <c r="H57">
+        <v>6.54</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.013</v>
+      </c>
+      <c r="K57">
+        <v>-0.065</v>
+      </c>
+      <c r="L57">
+        <v>0.078</v>
+      </c>
+      <c r="M57">
+        <v>0.663698915</v>
+      </c>
+      <c r="N57">
+        <v>-0.585698915</v>
+      </c>
+      <c r="O57">
+        <v>-0.11128279385</v>
+      </c>
+      <c r="P57">
+        <v>-0.47441612115</v>
+      </c>
+      <c r="Q57">
+        <v>-0.53941612115</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1226044246013937</v>
+      </c>
+      <c r="T57">
+        <v>2.044724888219636</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.02232940218080664</v>
+      </c>
+      <c r="W57">
+        <v>0.1795980888193858</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.1175231693726665</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1556949399212894</v>
+      </c>
+      <c r="C58">
+        <v>-1.291501603256281</v>
+      </c>
+      <c r="D58">
+        <v>2.281138396743719</v>
+      </c>
+      <c r="E58">
+        <v>3.64964</v>
+      </c>
+      <c r="F58">
+        <v>3.67864</v>
+      </c>
+      <c r="G58">
+        <v>0.106</v>
+      </c>
+      <c r="H58">
+        <v>6.54</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.013</v>
+      </c>
+      <c r="K58">
+        <v>-0.065</v>
+      </c>
+      <c r="L58">
+        <v>0.078</v>
+      </c>
+      <c r="M58">
+        <v>0.675766168</v>
+      </c>
+      <c r="N58">
+        <v>-0.597766168</v>
+      </c>
+      <c r="O58">
+        <v>-0.11357557192</v>
+      </c>
+      <c r="P58">
+        <v>-0.48419059608</v>
+      </c>
+      <c r="Q58">
+        <v>-0.5491905960800001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1251795251605163</v>
+      </c>
+      <c r="T58">
+        <v>2.091195908406446</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.02193066285614938</v>
+      </c>
+      <c r="W58">
+        <v>0.1796713372333253</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.1154245413481546</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1574389399212894</v>
+      </c>
+      <c r="C59">
+        <v>-1.384046833663862</v>
+      </c>
+      <c r="D59">
+        <v>2.254283166336138</v>
+      </c>
+      <c r="E59">
+        <v>3.71533</v>
+      </c>
+      <c r="F59">
+        <v>3.74433</v>
+      </c>
+      <c r="G59">
+        <v>0.106</v>
+      </c>
+      <c r="H59">
+        <v>6.54</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.013</v>
+      </c>
+      <c r="K59">
+        <v>-0.065</v>
+      </c>
+      <c r="L59">
+        <v>0.078</v>
+      </c>
+      <c r="M59">
+        <v>0.687833421</v>
+      </c>
+      <c r="N59">
+        <v>-0.609833421</v>
+      </c>
+      <c r="O59">
+        <v>-0.11586834999</v>
+      </c>
+      <c r="P59">
+        <v>-0.49396507101</v>
+      </c>
+      <c r="Q59">
+        <v>-0.55896507101</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1278743978386679</v>
+      </c>
+      <c r="T59">
+        <v>2.139828371392642</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.02154591438498886</v>
+      </c>
+      <c r="W59">
+        <v>0.1797420155274775</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.1133995493946781</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1591829399212894</v>
+      </c>
+      <c r="C60">
+        <v>-1.475967102726871</v>
+      </c>
+      <c r="D60">
+        <v>2.228052897273129</v>
+      </c>
+      <c r="E60">
+        <v>3.78102</v>
+      </c>
+      <c r="F60">
+        <v>3.81002</v>
+      </c>
+      <c r="G60">
+        <v>0.106</v>
+      </c>
+      <c r="H60">
+        <v>6.54</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.013</v>
+      </c>
+      <c r="K60">
+        <v>-0.065</v>
+      </c>
+      <c r="L60">
+        <v>0.078</v>
+      </c>
+      <c r="M60">
+        <v>0.699900674</v>
+      </c>
+      <c r="N60">
+        <v>-0.621900674</v>
+      </c>
+      <c r="O60">
+        <v>-0.11816112806</v>
+      </c>
+      <c r="P60">
+        <v>-0.50373954594</v>
+      </c>
+      <c r="Q60">
+        <v>-0.56873954594</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1306975977872076</v>
+      </c>
+      <c r="T60">
+        <v>2.19077666594961</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.02117443310248905</v>
+      </c>
+      <c r="W60">
+        <v>0.1798102566390728</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.1114443847499423</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1609269399212894</v>
+      </c>
+      <c r="C61">
+        <v>-1.567283975199938</v>
+      </c>
+      <c r="D61">
+        <v>2.202426024800062</v>
+      </c>
+      <c r="E61">
+        <v>3.84671</v>
+      </c>
+      <c r="F61">
+        <v>3.87571</v>
+      </c>
+      <c r="G61">
+        <v>0.106</v>
+      </c>
+      <c r="H61">
+        <v>6.54</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.013</v>
+      </c>
+      <c r="K61">
+        <v>-0.065</v>
+      </c>
+      <c r="L61">
+        <v>0.078</v>
+      </c>
+      <c r="M61">
+        <v>0.711967927</v>
+      </c>
+      <c r="N61">
+        <v>-0.633967927</v>
+      </c>
+      <c r="O61">
+        <v>-0.12045390613</v>
+      </c>
+      <c r="P61">
+        <v>-0.51351402087</v>
+      </c>
+      <c r="Q61">
+        <v>-0.5785140208699999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1336585148064077</v>
+      </c>
+      <c r="T61">
+        <v>2.244210243167892</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.0208155444058367</v>
+      </c>
+      <c r="W61">
+        <v>0.1798761844926478</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1095554968728246</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1626709399212894</v>
+      </c>
+      <c r="C62">
+        <v>-1.658018034975686</v>
+      </c>
+      <c r="D62">
+        <v>2.177381965024314</v>
+      </c>
+      <c r="E62">
+        <v>3.9124</v>
+      </c>
+      <c r="F62">
+        <v>3.9414</v>
+      </c>
+      <c r="G62">
+        <v>0.106</v>
+      </c>
+      <c r="H62">
+        <v>6.54</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.013</v>
+      </c>
+      <c r="K62">
+        <v>-0.065</v>
+      </c>
+      <c r="L62">
+        <v>0.078</v>
+      </c>
+      <c r="M62">
+        <v>0.72403518</v>
+      </c>
+      <c r="N62">
+        <v>-0.64603518</v>
+      </c>
+      <c r="O62">
+        <v>-0.1227466842</v>
+      </c>
+      <c r="P62">
+        <v>-0.5232884958</v>
+      </c>
+      <c r="Q62">
+        <v>-0.5882884958000001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1367674776765679</v>
+      </c>
+      <c r="T62">
+        <v>2.30031549924709</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.02046861866573942</v>
+      </c>
+      <c r="W62">
+        <v>0.1799399147511037</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1077295719249443</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1644149399212894</v>
+      </c>
+      <c r="C63">
+        <v>-1.748188940225234</v>
+      </c>
+      <c r="D63">
+        <v>2.152901059774766</v>
+      </c>
+      <c r="E63">
+        <v>3.97809</v>
+      </c>
+      <c r="F63">
+        <v>4.00709</v>
+      </c>
+      <c r="G63">
+        <v>0.106</v>
+      </c>
+      <c r="H63">
+        <v>6.54</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.013</v>
+      </c>
+      <c r="K63">
+        <v>-0.065</v>
+      </c>
+      <c r="L63">
+        <v>0.078</v>
+      </c>
+      <c r="M63">
+        <v>0.736102433</v>
+      </c>
+      <c r="N63">
+        <v>-0.658102433</v>
+      </c>
+      <c r="O63">
+        <v>-0.12503946227</v>
+      </c>
+      <c r="P63">
+        <v>-0.5330629707300001</v>
+      </c>
+      <c r="Q63">
+        <v>-0.59806297073</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1400358745400697</v>
+      </c>
+      <c r="T63">
+        <v>2.359297947945734</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.02013306754007156</v>
+      </c>
+      <c r="W63">
+        <v>0.1800015554928888</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1059635133687976</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1661589399212894</v>
+      </c>
+      <c r="C64">
+        <v>-1.837815474860309</v>
+      </c>
+      <c r="D64">
+        <v>2.128964525139691</v>
+      </c>
+      <c r="E64">
+        <v>4.04378</v>
+      </c>
+      <c r="F64">
+        <v>4.07278</v>
+      </c>
+      <c r="G64">
+        <v>0.106</v>
+      </c>
+      <c r="H64">
+        <v>6.54</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.013</v>
+      </c>
+      <c r="K64">
+        <v>-0.065</v>
+      </c>
+      <c r="L64">
+        <v>0.078</v>
+      </c>
+      <c r="M64">
+        <v>0.748169686</v>
+      </c>
+      <c r="N64">
+        <v>-0.670169686</v>
+      </c>
+      <c r="O64">
+        <v>-0.12733224034</v>
+      </c>
+      <c r="P64">
+        <v>-0.54283744566</v>
+      </c>
+      <c r="Q64">
+        <v>-0.60783744566</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1434762922911242</v>
+      </c>
+      <c r="T64">
+        <v>2.421384736049569</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.01980834064426395</v>
+      </c>
+      <c r="W64">
+        <v>0.1800612078236487</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.1042544244434944</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1679029399212894</v>
+      </c>
+      <c r="C65">
+        <v>-1.926915596600085</v>
+      </c>
+      <c r="D65">
+        <v>2.105554403399915</v>
+      </c>
+      <c r="E65">
+        <v>4.10947</v>
+      </c>
+      <c r="F65">
+        <v>4.13847</v>
+      </c>
+      <c r="G65">
+        <v>0.106</v>
+      </c>
+      <c r="H65">
+        <v>6.54</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.013</v>
+      </c>
+      <c r="K65">
+        <v>-0.065</v>
+      </c>
+      <c r="L65">
+        <v>0.078</v>
+      </c>
+      <c r="M65">
+        <v>0.760236939</v>
+      </c>
+      <c r="N65">
+        <v>-0.682236939</v>
+      </c>
+      <c r="O65">
+        <v>-0.12962501841</v>
+      </c>
+      <c r="P65">
+        <v>-0.55261192059</v>
+      </c>
+      <c r="Q65">
+        <v>-0.6176119205899999</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1471026785692627</v>
+      </c>
+      <c r="T65">
+        <v>2.486827566753611</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.01949392253879945</v>
+      </c>
+      <c r="W65">
+        <v>0.1801189664296226</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.1025995923094707</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1696469399212894</v>
+      </c>
+      <c r="C66">
+        <v>-2.015506481901244</v>
+      </c>
+      <c r="D66">
+        <v>2.082653518098756</v>
+      </c>
+      <c r="E66">
+        <v>4.17516</v>
+      </c>
+      <c r="F66">
+        <v>4.20416</v>
+      </c>
+      <c r="G66">
+        <v>0.106</v>
+      </c>
+      <c r="H66">
+        <v>6.54</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.013</v>
+      </c>
+      <c r="K66">
+        <v>-0.065</v>
+      </c>
+      <c r="L66">
+        <v>0.078</v>
+      </c>
+      <c r="M66">
+        <v>0.772304192</v>
+      </c>
+      <c r="N66">
+        <v>-0.694304192</v>
+      </c>
+      <c r="O66">
+        <v>-0.13191779648</v>
+      </c>
+      <c r="P66">
+        <v>-0.56238639552</v>
+      </c>
+      <c r="Q66">
+        <v>-0.6273863955200001</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1509305307517422</v>
+      </c>
+      <c r="T66">
+        <v>2.555906110274545</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.01918932999913071</v>
+      </c>
+      <c r="W66">
+        <v>0.1801749200791597</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1009964736796353</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1713909399212894</v>
+      </c>
+      <c r="C67">
+        <v>-2.103604567987536</v>
+      </c>
+      <c r="D67">
+        <v>2.060245432012464</v>
+      </c>
+      <c r="E67">
+        <v>4.24085</v>
+      </c>
+      <c r="F67">
+        <v>4.26985</v>
+      </c>
+      <c r="G67">
+        <v>0.106</v>
+      </c>
+      <c r="H67">
+        <v>6.54</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.013</v>
+      </c>
+      <c r="K67">
+        <v>-0.065</v>
+      </c>
+      <c r="L67">
+        <v>0.078</v>
+      </c>
+      <c r="M67">
+        <v>0.784371445</v>
+      </c>
+      <c r="N67">
+        <v>-0.706371445</v>
+      </c>
+      <c r="O67">
+        <v>-0.13421057455</v>
+      </c>
+      <c r="P67">
+        <v>-0.5721608704500001</v>
+      </c>
+      <c r="Q67">
+        <v>-0.63716087045</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1549771173446491</v>
+      </c>
+      <c r="T67">
+        <v>2.628931999139532</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.01889410953760562</v>
+      </c>
+      <c r="W67">
+        <v>0.1802291520779419</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.09944268177687166</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1731349399212894</v>
+      </c>
+      <c r="C68">
+        <v>-2.191225592194924</v>
+      </c>
+      <c r="D68">
+        <v>2.038314407805076</v>
+      </c>
+      <c r="E68">
+        <v>4.30654</v>
+      </c>
+      <c r="F68">
+        <v>4.33554</v>
+      </c>
+      <c r="G68">
+        <v>0.106</v>
+      </c>
+      <c r="H68">
+        <v>6.54</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.013</v>
+      </c>
+      <c r="K68">
+        <v>-0.065</v>
+      </c>
+      <c r="L68">
+        <v>0.078</v>
+      </c>
+      <c r="M68">
+        <v>0.796438698</v>
+      </c>
+      <c r="N68">
+        <v>-0.718438698</v>
+      </c>
+      <c r="O68">
+        <v>-0.13650335262</v>
+      </c>
+      <c r="P68">
+        <v>-0.58193534538</v>
+      </c>
+      <c r="Q68">
+        <v>-0.64693534538</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1592617384430211</v>
+      </c>
+      <c r="T68">
+        <v>2.706253528525989</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.0186078351506722</v>
+      </c>
+      <c r="W68">
+        <v>0.1802817406828215</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.09793597447722202</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1748789399212894</v>
+      </c>
+      <c r="C69">
+        <v>-2.278384628830271</v>
+      </c>
+      <c r="D69">
+        <v>2.016845371169729</v>
+      </c>
+      <c r="E69">
+        <v>4.37223</v>
+      </c>
+      <c r="F69">
+        <v>4.40123</v>
+      </c>
+      <c r="G69">
+        <v>0.106</v>
+      </c>
+      <c r="H69">
+        <v>6.54</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.013</v>
+      </c>
+      <c r="K69">
+        <v>-0.065</v>
+      </c>
+      <c r="L69">
+        <v>0.078</v>
+      </c>
+      <c r="M69">
+        <v>0.808505951</v>
+      </c>
+      <c r="N69">
+        <v>-0.730505951</v>
+      </c>
+      <c r="O69">
+        <v>-0.13879613069</v>
+      </c>
+      <c r="P69">
+        <v>-0.59170982031</v>
+      </c>
+      <c r="Q69">
+        <v>-0.6567098203099999</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1638060335473551</v>
+      </c>
+      <c r="T69">
+        <v>2.788261211208594</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.01833010626782635</v>
+      </c>
+      <c r="W69">
+        <v>0.1803327594786003</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.09647424351487544</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1766229399212894</v>
+      </c>
+      <c r="C70">
+        <v>-2.365096123724962</v>
+      </c>
+      <c r="D70">
+        <v>1.995823876275038</v>
+      </c>
+      <c r="E70">
+        <v>4.43792</v>
+      </c>
+      <c r="F70">
+        <v>4.46692</v>
+      </c>
+      <c r="G70">
+        <v>0.106</v>
+      </c>
+      <c r="H70">
+        <v>6.54</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.013</v>
+      </c>
+      <c r="K70">
+        <v>-0.065</v>
+      </c>
+      <c r="L70">
+        <v>0.078</v>
+      </c>
+      <c r="M70">
+        <v>0.820573204</v>
+      </c>
+      <c r="N70">
+        <v>-0.742573204</v>
+      </c>
+      <c r="O70">
+        <v>-0.14108890876</v>
+      </c>
+      <c r="P70">
+        <v>-0.60148429524</v>
+      </c>
+      <c r="Q70">
+        <v>-0.6664842952400001</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.16863434709571</v>
+      </c>
+      <c r="T70">
+        <v>2.875394374058863</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.01806054588153478</v>
+      </c>
+      <c r="W70">
+        <v>0.1803822777215621</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.09505550463965673</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1783669399212894</v>
+      </c>
+      <c r="C71">
+        <v>-2.451373926649911</v>
+      </c>
+      <c r="D71">
+        <v>1.975236073350089</v>
+      </c>
+      <c r="E71">
+        <v>4.50361</v>
+      </c>
+      <c r="F71">
+        <v>4.53261</v>
+      </c>
+      <c r="G71">
+        <v>0.106</v>
+      </c>
+      <c r="H71">
+        <v>6.54</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.013</v>
+      </c>
+      <c r="K71">
+        <v>-0.065</v>
+      </c>
+      <c r="L71">
+        <v>0.078</v>
+      </c>
+      <c r="M71">
+        <v>0.832640457</v>
+      </c>
+      <c r="N71">
+        <v>-0.754640457</v>
+      </c>
+      <c r="O71">
+        <v>-0.14338168683</v>
+      </c>
+      <c r="P71">
+        <v>-0.6112587701700001</v>
+      </c>
+      <c r="Q71">
+        <v>-0.67625877017</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1737741647439587</v>
+      </c>
+      <c r="T71">
+        <v>2.968149031286569</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.01779879883977341</v>
+      </c>
+      <c r="W71">
+        <v>0.1804303606531336</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.09367788863038629</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1801109399212894</v>
+      </c>
+      <c r="C72">
+        <v>-2.537231321744803</v>
+      </c>
+      <c r="D72">
+        <v>1.955068678255197</v>
+      </c>
+      <c r="E72">
+        <v>4.5693</v>
+      </c>
+      <c r="F72">
+        <v>4.5983</v>
+      </c>
+      <c r="G72">
+        <v>0.106</v>
+      </c>
+      <c r="H72">
+        <v>6.54</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.013</v>
+      </c>
+      <c r="K72">
+        <v>-0.065</v>
+      </c>
+      <c r="L72">
+        <v>0.078</v>
+      </c>
+      <c r="M72">
+        <v>0.84470771</v>
+      </c>
+      <c r="N72">
+        <v>-0.76670771</v>
+      </c>
+      <c r="O72">
+        <v>-0.1456744649</v>
+      </c>
+      <c r="P72">
+        <v>-0.6210332451</v>
+      </c>
+      <c r="Q72">
+        <v>-0.6860332451</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1792566369020906</v>
+      </c>
+      <c r="T72">
+        <v>3.067087332329454</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.0175445302849195</v>
+      </c>
+      <c r="W72">
+        <v>0.1804770697866603</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.09233963307852366</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1818549399212894</v>
+      </c>
+      <c r="C73">
+        <v>-2.622681056102059</v>
+      </c>
+      <c r="D73">
+        <v>1.935308943897941</v>
+      </c>
+      <c r="E73">
+        <v>4.63499</v>
+      </c>
+      <c r="F73">
+        <v>4.66399</v>
+      </c>
+      <c r="G73">
+        <v>0.106</v>
+      </c>
+      <c r="H73">
+        <v>6.54</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.013</v>
+      </c>
+      <c r="K73">
+        <v>-0.065</v>
+      </c>
+      <c r="L73">
+        <v>0.078</v>
+      </c>
+      <c r="M73">
+        <v>0.856774963</v>
+      </c>
+      <c r="N73">
+        <v>-0.778774963</v>
+      </c>
+      <c r="O73">
+        <v>-0.14796724297</v>
+      </c>
+      <c r="P73">
+        <v>-0.63080772003</v>
+      </c>
+      <c r="Q73">
+        <v>-0.6958077200299999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1851172105883696</v>
+      </c>
+      <c r="T73">
+        <v>3.172848964478745</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.01729742422456852</v>
+      </c>
+      <c r="W73">
+        <v>0.1805224631699468</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.09103907486615004</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1835989399212894</v>
+      </c>
+      <c r="C74">
+        <v>-2.70773536663477</v>
+      </c>
+      <c r="D74">
+        <v>1.915944633365231</v>
+      </c>
+      <c r="E74">
+        <v>4.70068</v>
+      </c>
+      <c r="F74">
+        <v>4.72968</v>
+      </c>
+      <c r="G74">
+        <v>0.106</v>
+      </c>
+      <c r="H74">
+        <v>6.54</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.013</v>
+      </c>
+      <c r="K74">
+        <v>-0.065</v>
+      </c>
+      <c r="L74">
+        <v>0.078</v>
+      </c>
+      <c r="M74">
+        <v>0.868842216</v>
+      </c>
+      <c r="N74">
+        <v>-0.790842216</v>
+      </c>
+      <c r="O74">
+        <v>-0.15026002104</v>
+      </c>
+      <c r="P74">
+        <v>-0.64058219496</v>
+      </c>
+      <c r="Q74">
+        <v>-0.7055821949600001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1913963966808113</v>
+      </c>
+      <c r="T74">
+        <v>3.286164998924415</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.01705718222144952</v>
+      </c>
+      <c r="W74">
+        <v>0.1805665956259197</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.08977464327078688</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1853429399212894</v>
+      </c>
+      <c r="C75">
+        <v>-2.792406005347591</v>
+      </c>
+      <c r="D75">
+        <v>1.896963994652409</v>
+      </c>
+      <c r="E75">
+        <v>4.76637</v>
+      </c>
+      <c r="F75">
+        <v>4.79537</v>
+      </c>
+      <c r="G75">
+        <v>0.106</v>
+      </c>
+      <c r="H75">
+        <v>6.54</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.013</v>
+      </c>
+      <c r="K75">
+        <v>-0.065</v>
+      </c>
+      <c r="L75">
+        <v>0.078</v>
+      </c>
+      <c r="M75">
+        <v>0.880909469</v>
+      </c>
+      <c r="N75">
+        <v>-0.802909469</v>
+      </c>
+      <c r="O75">
+        <v>-0.15255279911</v>
+      </c>
+      <c r="P75">
+        <v>-0.6503566698900001</v>
+      </c>
+      <c r="Q75">
+        <v>-0.71535666989</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1981407076689895</v>
+      </c>
+      <c r="T75">
+        <v>3.407874813699392</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.0168235221910187</v>
+      </c>
+      <c r="W75">
+        <v>0.1806095189735099</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.08854485363694053</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1870869399212894</v>
+      </c>
+      <c r="C76">
+        <v>-2.876704263120285</v>
+      </c>
+      <c r="D76">
+        <v>1.878355736879715</v>
+      </c>
+      <c r="E76">
+        <v>4.83206</v>
+      </c>
+      <c r="F76">
+        <v>4.86106</v>
+      </c>
+      <c r="G76">
+        <v>0.106</v>
+      </c>
+      <c r="H76">
+        <v>6.54</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.013</v>
+      </c>
+      <c r="K76">
+        <v>-0.065</v>
+      </c>
+      <c r="L76">
+        <v>0.078</v>
+      </c>
+      <c r="M76">
+        <v>0.892976722</v>
+      </c>
+      <c r="N76">
+        <v>-0.814976722</v>
+      </c>
+      <c r="O76">
+        <v>-0.15484557718</v>
+      </c>
+      <c r="P76">
+        <v>-0.66013114482</v>
+      </c>
+      <c r="Q76">
+        <v>-0.72513114482</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2054038118101045</v>
+      </c>
+      <c r="T76">
+        <v>3.5389469219186</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.01659617729654548</v>
+      </c>
+      <c r="W76">
+        <v>0.1806512822306246</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.08734830156076556</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1888309399212894</v>
+      </c>
+      <c r="C77">
+        <v>-2.960640992105018</v>
+      </c>
+      <c r="D77">
+        <v>1.860109007894982</v>
+      </c>
+      <c r="E77">
+        <v>4.89775</v>
+      </c>
+      <c r="F77">
+        <v>4.92675</v>
+      </c>
+      <c r="G77">
+        <v>0.106</v>
+      </c>
+      <c r="H77">
+        <v>6.54</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.013</v>
+      </c>
+      <c r="K77">
+        <v>-0.065</v>
+      </c>
+      <c r="L77">
+        <v>0.078</v>
+      </c>
+      <c r="M77">
+        <v>0.905043975</v>
+      </c>
+      <c r="N77">
+        <v>-0.827043975</v>
+      </c>
+      <c r="O77">
+        <v>-0.15713835525</v>
+      </c>
+      <c r="P77">
+        <v>-0.6699056197500001</v>
+      </c>
+      <c r="Q77">
+        <v>-0.7349056197500001</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2132479642825087</v>
+      </c>
+      <c r="T77">
+        <v>3.680504798795344</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.01637489493259154</v>
+      </c>
+      <c r="W77">
+        <v>0.1806919318008829</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.08618365753995538</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1905749399212894</v>
+      </c>
+      <c r="C78">
+        <v>-3.044226626830796</v>
+      </c>
+      <c r="D78">
+        <v>1.842213373169204</v>
+      </c>
+      <c r="E78">
+        <v>4.96344</v>
+      </c>
+      <c r="F78">
+        <v>4.99244</v>
+      </c>
+      <c r="G78">
+        <v>0.106</v>
+      </c>
+      <c r="H78">
+        <v>6.54</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.013</v>
+      </c>
+      <c r="K78">
+        <v>-0.065</v>
+      </c>
+      <c r="L78">
+        <v>0.078</v>
+      </c>
+      <c r="M78">
+        <v>0.917111228</v>
+      </c>
+      <c r="N78">
+        <v>-0.839111228</v>
+      </c>
+      <c r="O78">
+        <v>-0.15943113332</v>
+      </c>
+      <c r="P78">
+        <v>-0.67968009468</v>
+      </c>
+      <c r="Q78">
+        <v>-0.7446800946800001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2217457961276133</v>
+      </c>
+      <c r="T78">
+        <v>3.833859165411817</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.01615943578874165</v>
+      </c>
+      <c r="W78">
+        <v>0.1807315116456082</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.08504966204600861</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1923189399212894</v>
+      </c>
+      <c r="C79">
+        <v>-3.127471204101264</v>
+      </c>
+      <c r="D79">
+        <v>1.824658795898736</v>
+      </c>
+      <c r="E79">
+        <v>5.02913</v>
+      </c>
+      <c r="F79">
+        <v>5.05813</v>
+      </c>
+      <c r="G79">
+        <v>0.106</v>
+      </c>
+      <c r="H79">
+        <v>6.54</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.013</v>
+      </c>
+      <c r="K79">
+        <v>-0.065</v>
+      </c>
+      <c r="L79">
+        <v>0.078</v>
+      </c>
+      <c r="M79">
+        <v>0.929178481</v>
+      </c>
+      <c r="N79">
+        <v>-0.851178481</v>
+      </c>
+      <c r="O79">
+        <v>-0.16172391139</v>
+      </c>
+      <c r="P79">
+        <v>-0.6894545696100001</v>
+      </c>
+      <c r="Q79">
+        <v>-0.75445456961</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2309825698722921</v>
+      </c>
+      <c r="T79">
+        <v>4.000548694342766</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.01594957298629046</v>
+      </c>
+      <c r="W79">
+        <v>0.1807700634424184</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.08394512098047602</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1940629399212894</v>
+      </c>
+      <c r="C80">
+        <v>-3.210384381765589</v>
+      </c>
+      <c r="D80">
+        <v>1.807435618234411</v>
+      </c>
+      <c r="E80">
+        <v>5.09482</v>
+      </c>
+      <c r="F80">
+        <v>5.12382</v>
+      </c>
+      <c r="G80">
+        <v>0.106</v>
+      </c>
+      <c r="H80">
+        <v>6.54</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.013</v>
+      </c>
+      <c r="K80">
+        <v>-0.065</v>
+      </c>
+      <c r="L80">
+        <v>0.078</v>
+      </c>
+      <c r="M80">
+        <v>0.9412457340000001</v>
+      </c>
+      <c r="N80">
+        <v>-0.8632457340000002</v>
+      </c>
+      <c r="O80">
+        <v>-0.16401668946</v>
+      </c>
+      <c r="P80">
+        <v>-0.6992290445400001</v>
+      </c>
+      <c r="Q80">
+        <v>-0.7642290445400002</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2410590503210326</v>
+      </c>
+      <c r="T80">
+        <v>4.182391816812891</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.01574509128133801</v>
+      </c>
+      <c r="W80">
+        <v>0.1808076267316182</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.08286890148072634</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1958069399212894</v>
+      </c>
+      <c r="C81">
+        <v>-3.292975456436221</v>
+      </c>
+      <c r="D81">
+        <v>1.79053454356378</v>
+      </c>
+      <c r="E81">
+        <v>5.16051</v>
+      </c>
+      <c r="F81">
+        <v>5.18951</v>
+      </c>
+      <c r="G81">
+        <v>0.106</v>
+      </c>
+      <c r="H81">
+        <v>6.54</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.013</v>
+      </c>
+      <c r="K81">
+        <v>-0.065</v>
+      </c>
+      <c r="L81">
+        <v>0.078</v>
+      </c>
+      <c r="M81">
+        <v>0.9533129870000001</v>
+      </c>
+      <c r="N81">
+        <v>-0.8753129870000002</v>
+      </c>
+      <c r="O81">
+        <v>-0.16630946753</v>
+      </c>
+      <c r="P81">
+        <v>-0.7090035194700002</v>
+      </c>
+      <c r="Q81">
+        <v>-0.7740035194700001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2520951955744152</v>
+      </c>
+      <c r="T81">
+        <v>4.381553331899221</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.01554578632840969</v>
+      </c>
+      <c r="W81">
+        <v>0.1808442390514712</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.08181992804426141</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1975509399212894</v>
+      </c>
+      <c r="C82">
+        <v>-3.375253380221785</v>
+      </c>
+      <c r="D82">
+        <v>1.773946619778215</v>
+      </c>
+      <c r="E82">
+        <v>5.2262</v>
+      </c>
+      <c r="F82">
+        <v>5.2552</v>
+      </c>
+      <c r="G82">
+        <v>0.106</v>
+      </c>
+      <c r="H82">
+        <v>6.54</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.013</v>
+      </c>
+      <c r="K82">
+        <v>-0.065</v>
+      </c>
+      <c r="L82">
+        <v>0.078</v>
+      </c>
+      <c r="M82">
+        <v>0.9653802400000001</v>
+      </c>
+      <c r="N82">
+        <v>-0.8873802400000002</v>
+      </c>
+      <c r="O82">
+        <v>-0.1686022456</v>
+      </c>
+      <c r="P82">
+        <v>-0.7187779944000001</v>
+      </c>
+      <c r="Q82">
+        <v>-0.7837779944000001</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.264234955353136</v>
+      </c>
+      <c r="T82">
+        <v>4.600630998494182</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.01535146399930456</v>
+      </c>
+      <c r="W82">
+        <v>0.1808799360633278</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.08079717894370819</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1992949399212894</v>
+      </c>
+      <c r="C83">
+        <v>-3.457226776538418</v>
+      </c>
+      <c r="D83">
+        <v>1.757663223461582</v>
+      </c>
+      <c r="E83">
+        <v>5.29189</v>
+      </c>
+      <c r="F83">
+        <v>5.32089</v>
+      </c>
+      <c r="G83">
+        <v>0.106</v>
+      </c>
+      <c r="H83">
+        <v>6.54</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.013</v>
+      </c>
+      <c r="K83">
+        <v>-0.065</v>
+      </c>
+      <c r="L83">
+        <v>0.078</v>
+      </c>
+      <c r="M83">
+        <v>0.9774474930000001</v>
+      </c>
+      <c r="N83">
+        <v>-0.8994474930000002</v>
+      </c>
+      <c r="O83">
+        <v>-0.17089502367</v>
+      </c>
+      <c r="P83">
+        <v>-0.7285524693300001</v>
+      </c>
+      <c r="Q83">
+        <v>-0.79355246933</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2776525845822484</v>
+      </c>
+      <c r="T83">
+        <v>4.842769472099139</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.01516193975239957</v>
+      </c>
+      <c r="W83">
+        <v>0.1809147516674842</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.07979968290736605</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2010389399212894</v>
+      </c>
+      <c r="C84">
+        <v>-3.538903955058208</v>
+      </c>
+      <c r="D84">
+        <v>1.741676044941793</v>
+      </c>
+      <c r="E84">
+        <v>5.35758</v>
+      </c>
+      <c r="F84">
+        <v>5.38658</v>
+      </c>
+      <c r="G84">
+        <v>0.106</v>
+      </c>
+      <c r="H84">
+        <v>6.54</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.013</v>
+      </c>
+      <c r="K84">
+        <v>-0.065</v>
+      </c>
+      <c r="L84">
+        <v>0.078</v>
+      </c>
+      <c r="M84">
+        <v>0.9895147460000001</v>
+      </c>
+      <c r="N84">
+        <v>-0.9115147460000002</v>
+      </c>
+      <c r="O84">
+        <v>-0.17318780174</v>
+      </c>
+      <c r="P84">
+        <v>-0.7383269442600001</v>
+      </c>
+      <c r="Q84">
+        <v>-0.8033269442600002</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2925610615034844</v>
+      </c>
+      <c r="T84">
+        <v>5.111812220549091</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.01497703804810201</v>
+      </c>
+      <c r="W84">
+        <v>0.1809487181105636</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.07882651604264213</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2027829399212894</v>
+      </c>
+      <c r="C85">
+        <v>-3.620292925849195</v>
+      </c>
+      <c r="D85">
+        <v>1.725977074150805</v>
+      </c>
+      <c r="E85">
+        <v>5.42327</v>
+      </c>
+      <c r="F85">
+        <v>5.45227</v>
+      </c>
+      <c r="G85">
+        <v>0.106</v>
+      </c>
+      <c r="H85">
+        <v>6.54</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.013</v>
+      </c>
+      <c r="K85">
+        <v>-0.065</v>
+      </c>
+      <c r="L85">
+        <v>0.078</v>
+      </c>
+      <c r="M85">
+        <v>1.001581999</v>
+      </c>
+      <c r="N85">
+        <v>-0.9235819990000002</v>
+      </c>
+      <c r="O85">
+        <v>-0.17548057981</v>
+      </c>
+      <c r="P85">
+        <v>-0.7481014191900002</v>
+      </c>
+      <c r="Q85">
+        <v>-0.8131014191900001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3092234768860423</v>
+      </c>
+      <c r="T85">
+        <v>5.412507057051979</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.01479659180655861</v>
+      </c>
+      <c r="W85">
+        <v>0.1809818660851352</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.07787679898188737</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2045269399212894</v>
+      </c>
+      <c r="C86">
+        <v>-3.701401412757468</v>
+      </c>
+      <c r="D86">
+        <v>1.710558587242531</v>
+      </c>
+      <c r="E86">
+        <v>5.48896</v>
+      </c>
+      <c r="F86">
+        <v>5.51796</v>
+      </c>
+      <c r="G86">
+        <v>0.106</v>
+      </c>
+      <c r="H86">
+        <v>6.54</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.013</v>
+      </c>
+      <c r="K86">
+        <v>-0.065</v>
+      </c>
+      <c r="L86">
+        <v>0.078</v>
+      </c>
+      <c r="M86">
+        <v>1.013649252</v>
+      </c>
+      <c r="N86">
+        <v>-0.935649252</v>
+      </c>
+      <c r="O86">
+        <v>-0.17777335788</v>
+      </c>
+      <c r="P86">
+        <v>-0.75787589412</v>
+      </c>
+      <c r="Q86">
+        <v>-0.8228758941200001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3279686941914198</v>
+      </c>
+      <c r="T86">
+        <v>5.750788748117724</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.01462044190409958</v>
+      </c>
+      <c r="W86">
+        <v>0.1810142248222169</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.07694969423210307</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2062709399212894</v>
+      </c>
+      <c r="C87">
+        <v>-3.782236866078365</v>
+      </c>
+      <c r="D87">
+        <v>1.695413133921635</v>
+      </c>
+      <c r="E87">
+        <v>5.55465</v>
+      </c>
+      <c r="F87">
+        <v>5.58365</v>
+      </c>
+      <c r="G87">
+        <v>0.106</v>
+      </c>
+      <c r="H87">
+        <v>6.54</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.013</v>
+      </c>
+      <c r="K87">
+        <v>-0.065</v>
+      </c>
+      <c r="L87">
+        <v>0.078</v>
+      </c>
+      <c r="M87">
+        <v>1.025716505</v>
+      </c>
+      <c r="N87">
+        <v>-0.9477165049999999</v>
+      </c>
+      <c r="O87">
+        <v>-0.18006613595</v>
+      </c>
+      <c r="P87">
+        <v>-0.7676503690499999</v>
+      </c>
+      <c r="Q87">
+        <v>-0.83265036905</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3492132738041812</v>
+      </c>
+      <c r="T87">
+        <v>6.134174664658907</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.01444843670522783</v>
+      </c>
+      <c r="W87">
+        <v>0.1810458221772497</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.07604440371172538</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2080149399212894</v>
+      </c>
+      <c r="C88">
+        <v>-3.862806474560398</v>
+      </c>
+      <c r="D88">
+        <v>1.680533525439601</v>
+      </c>
+      <c r="E88">
+        <v>5.62034</v>
+      </c>
+      <c r="F88">
+        <v>5.64934</v>
+      </c>
+      <c r="G88">
+        <v>0.106</v>
+      </c>
+      <c r="H88">
+        <v>6.54</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.013</v>
+      </c>
+      <c r="K88">
+        <v>-0.065</v>
+      </c>
+      <c r="L88">
+        <v>0.078</v>
+      </c>
+      <c r="M88">
+        <v>1.037783758</v>
+      </c>
+      <c r="N88">
+        <v>-0.959783758</v>
+      </c>
+      <c r="O88">
+        <v>-0.18235891402</v>
+      </c>
+      <c r="P88">
+        <v>-0.77742484398</v>
+      </c>
+      <c r="Q88">
+        <v>-0.8424248439799999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3734927933616227</v>
+      </c>
+      <c r="T88">
+        <v>6.572329997848829</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.01428043162726006</v>
+      </c>
+      <c r="W88">
+        <v>0.1810766847100723</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.07516016645926338</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2097589399212894</v>
+      </c>
+      <c r="C89">
+        <v>-3.943117176782596</v>
+      </c>
+      <c r="D89">
+        <v>1.665912823217403</v>
+      </c>
+      <c r="E89">
+        <v>5.68603</v>
+      </c>
+      <c r="F89">
+        <v>5.71503</v>
+      </c>
+      <c r="G89">
+        <v>0.106</v>
+      </c>
+      <c r="H89">
+        <v>6.54</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.013</v>
+      </c>
+      <c r="K89">
+        <v>-0.065</v>
+      </c>
+      <c r="L89">
+        <v>0.078</v>
+      </c>
+      <c r="M89">
+        <v>1.049851011</v>
+      </c>
+      <c r="N89">
+        <v>-0.9718510109999999</v>
+      </c>
+      <c r="O89">
+        <v>-0.18465169209</v>
+      </c>
+      <c r="P89">
+        <v>-0.7871993189099999</v>
+      </c>
+      <c r="Q89">
+        <v>-0.8521993189099999</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.401507623620209</v>
+      </c>
+      <c r="T89">
+        <v>7.0778938438372</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.0141162887349927</v>
+      </c>
+      <c r="W89">
+        <v>0.1811068377593818</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.07429625649996152</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2115029399212894</v>
+      </c>
+      <c r="C90">
+        <v>-4.023175671943062</v>
+      </c>
+      <c r="D90">
+        <v>1.651544328056938</v>
+      </c>
+      <c r="E90">
+        <v>5.75172</v>
+      </c>
+      <c r="F90">
+        <v>5.78072</v>
+      </c>
+      <c r="G90">
+        <v>0.106</v>
+      </c>
+      <c r="H90">
+        <v>6.54</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.013</v>
+      </c>
+      <c r="K90">
+        <v>-0.065</v>
+      </c>
+      <c r="L90">
+        <v>0.078</v>
+      </c>
+      <c r="M90">
+        <v>1.061918264</v>
+      </c>
+      <c r="N90">
+        <v>-0.983918264</v>
+      </c>
+      <c r="O90">
+        <v>-0.18694447016</v>
+      </c>
+      <c r="P90">
+        <v>-0.79697379384</v>
+      </c>
+      <c r="Q90">
+        <v>-0.8619737938400001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4341915922552265</v>
+      </c>
+      <c r="T90">
+        <v>7.667718330823635</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.01395587636300415</v>
+      </c>
+      <c r="W90">
+        <v>0.1811363055121162</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.07345198085791649</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2132469399212893</v>
+      </c>
+      <c r="C91">
+        <v>-4.102988430093996</v>
+      </c>
+      <c r="D91">
+        <v>1.637421569906004</v>
+      </c>
+      <c r="E91">
+        <v>5.81741</v>
+      </c>
+      <c r="F91">
+        <v>5.84641</v>
+      </c>
+      <c r="G91">
+        <v>0.106</v>
+      </c>
+      <c r="H91">
+        <v>6.54</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.013</v>
+      </c>
+      <c r="K91">
+        <v>-0.065</v>
+      </c>
+      <c r="L91">
+        <v>0.078</v>
+      </c>
+      <c r="M91">
+        <v>1.073985517</v>
+      </c>
+      <c r="N91">
+        <v>-0.9959855169999999</v>
+      </c>
+      <c r="O91">
+        <v>-0.18923724823</v>
+      </c>
+      <c r="P91">
+        <v>-0.8067482687699999</v>
+      </c>
+      <c r="Q91">
+        <v>-0.87174826877</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4728181006420652</v>
+      </c>
+      <c r="T91">
+        <v>8.364783633625782</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.01379906876341983</v>
+      </c>
+      <c r="W91">
+        <v>0.1811651110681598</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.07262667770220965</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2149909399212894</v>
+      </c>
+      <c r="C92">
+        <v>-4.182561701856033</v>
+      </c>
+      <c r="D92">
+        <v>1.623538298143967</v>
+      </c>
+      <c r="E92">
+        <v>5.8831</v>
+      </c>
+      <c r="F92">
+        <v>5.9121</v>
+      </c>
+      <c r="G92">
+        <v>0.106</v>
+      </c>
+      <c r="H92">
+        <v>6.54</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.013</v>
+      </c>
+      <c r="K92">
+        <v>-0.065</v>
+      </c>
+      <c r="L92">
+        <v>0.078</v>
+      </c>
+      <c r="M92">
+        <v>1.08605277</v>
+      </c>
+      <c r="N92">
+        <v>-1.00805277</v>
+      </c>
+      <c r="O92">
+        <v>-0.1915300263</v>
+      </c>
+      <c r="P92">
+        <v>-0.8165227437</v>
+      </c>
+      <c r="Q92">
+        <v>-0.8815227436999999</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5191699107062718</v>
+      </c>
+      <c r="T92">
+        <v>9.201261996988363</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.01364574577715961</v>
+      </c>
+      <c r="W92">
+        <v>0.1811932765007358</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.07181971461662962</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2167349399212894</v>
+      </c>
+      <c r="C93">
+        <v>-4.261901527642554</v>
+      </c>
+      <c r="D93">
+        <v>1.609888472357445</v>
+      </c>
+      <c r="E93">
+        <v>5.94879</v>
+      </c>
+      <c r="F93">
+        <v>5.97779</v>
+      </c>
+      <c r="G93">
+        <v>0.106</v>
+      </c>
+      <c r="H93">
+        <v>6.54</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.013</v>
+      </c>
+      <c r="K93">
+        <v>-0.065</v>
+      </c>
+      <c r="L93">
+        <v>0.078</v>
+      </c>
+      <c r="M93">
+        <v>1.098120023</v>
+      </c>
+      <c r="N93">
+        <v>-1.020120023</v>
+      </c>
+      <c r="O93">
+        <v>-0.19382280437</v>
+      </c>
+      <c r="P93">
+        <v>-0.8262972186299998</v>
+      </c>
+      <c r="Q93">
+        <v>-0.8912972186299999</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5758221230069688</v>
+      </c>
+      <c r="T93">
+        <v>10.22362444109818</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.01349579252686116</v>
+      </c>
+      <c r="W93">
+        <v>0.1812208229128156</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.0710304869834798</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2184789399212894</v>
+      </c>
+      <c r="C94">
+        <v>-4.341013746422551</v>
+      </c>
+      <c r="D94">
+        <v>1.596466253577449</v>
+      </c>
+      <c r="E94">
+        <v>6.014480000000001</v>
+      </c>
+      <c r="F94">
+        <v>6.043480000000001</v>
+      </c>
+      <c r="G94">
+        <v>0.106</v>
+      </c>
+      <c r="H94">
+        <v>6.54</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.013</v>
+      </c>
+      <c r="K94">
+        <v>-0.065</v>
+      </c>
+      <c r="L94">
+        <v>0.078</v>
+      </c>
+      <c r="M94">
+        <v>1.110187276</v>
+      </c>
+      <c r="N94">
+        <v>-1.032187276</v>
+      </c>
+      <c r="O94">
+        <v>-0.19611558244</v>
+      </c>
+      <c r="P94">
+        <v>-0.8360716935600001</v>
+      </c>
+      <c r="Q94">
+        <v>-0.9010716935600001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.64663738838284</v>
+      </c>
+      <c r="T94">
+        <v>11.50157749623546</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01334909912983005</v>
+      </c>
+      <c r="W94">
+        <v>0.1812477704898502</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.07025841647278985</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2202229399212894</v>
+      </c>
+      <c r="C95">
+        <v>-4.419904004048765</v>
+      </c>
+      <c r="D95">
+        <v>1.583265995951236</v>
+      </c>
+      <c r="E95">
+        <v>6.080170000000001</v>
+      </c>
+      <c r="F95">
+        <v>6.109170000000001</v>
+      </c>
+      <c r="G95">
+        <v>0.106</v>
+      </c>
+      <c r="H95">
+        <v>6.54</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.013</v>
+      </c>
+      <c r="K95">
+        <v>-0.065</v>
+      </c>
+      <c r="L95">
+        <v>0.078</v>
+      </c>
+      <c r="M95">
+        <v>1.122254529</v>
+      </c>
+      <c r="N95">
+        <v>-1.044254529</v>
+      </c>
+      <c r="O95">
+        <v>-0.19840836051</v>
+      </c>
+      <c r="P95">
+        <v>-0.84584616849</v>
+      </c>
+      <c r="Q95">
+        <v>-0.91084616849</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7376855867232459</v>
+      </c>
+      <c r="T95">
+        <v>13.14465999569767</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.0132055604295093</v>
+      </c>
+      <c r="W95">
+        <v>0.1812741385490992</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.06950294962899639</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2219669399212894</v>
+      </c>
+      <c r="C96">
+        <v>-4.49857776117604</v>
+      </c>
+      <c r="D96">
+        <v>1.57028223882396</v>
+      </c>
+      <c r="E96">
+        <v>6.145860000000001</v>
+      </c>
+      <c r="F96">
+        <v>6.174860000000001</v>
+      </c>
+      <c r="G96">
+        <v>0.106</v>
+      </c>
+      <c r="H96">
+        <v>6.54</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.013</v>
+      </c>
+      <c r="K96">
+        <v>-0.065</v>
+      </c>
+      <c r="L96">
+        <v>0.078</v>
+      </c>
+      <c r="M96">
+        <v>1.134321782</v>
+      </c>
+      <c r="N96">
+        <v>-1.056321782</v>
+      </c>
+      <c r="O96">
+        <v>-0.20070113858</v>
+      </c>
+      <c r="P96">
+        <v>-0.8556206434200001</v>
+      </c>
+      <c r="Q96">
+        <v>-0.9206206434200002</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.8590831845104537</v>
+      </c>
+      <c r="T96">
+        <v>15.33543666164728</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01306507574408899</v>
+      </c>
+      <c r="W96">
+        <v>0.1812999455858109</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.06876355654783683</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2237109399212894</v>
+      </c>
+      <c r="C97">
+        <v>-4.577040300793255</v>
+      </c>
+      <c r="D97">
+        <v>1.557509699206745</v>
+      </c>
+      <c r="E97">
+        <v>6.211550000000001</v>
+      </c>
+      <c r="F97">
+        <v>6.240550000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.106</v>
+      </c>
+      <c r="H97">
+        <v>6.54</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.013</v>
+      </c>
+      <c r="K97">
+        <v>-0.065</v>
+      </c>
+      <c r="L97">
+        <v>0.078</v>
+      </c>
+      <c r="M97">
+        <v>1.146389035</v>
+      </c>
+      <c r="N97">
+        <v>-1.068389035</v>
+      </c>
+      <c r="O97">
+        <v>-0.20299391665</v>
+      </c>
+      <c r="P97">
+        <v>-0.86539511835</v>
+      </c>
+      <c r="Q97">
+        <v>-0.9303951183500001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.029039821412545</v>
+      </c>
+      <c r="T97">
+        <v>18.40252399397675</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.01292754863099332</v>
+      </c>
+      <c r="W97">
+        <v>0.1813252093164865</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.06803972963680693</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2254549399212894</v>
+      </c>
+      <c r="C98">
+        <v>-4.655296735390611</v>
+      </c>
+      <c r="D98">
+        <v>1.544943264609389</v>
+      </c>
+      <c r="E98">
+        <v>6.27724</v>
+      </c>
+      <c r="F98">
+        <v>6.30624</v>
+      </c>
+      <c r="G98">
+        <v>0.106</v>
+      </c>
+      <c r="H98">
+        <v>6.54</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.013</v>
+      </c>
+      <c r="K98">
+        <v>-0.065</v>
+      </c>
+      <c r="L98">
+        <v>0.078</v>
+      </c>
+      <c r="M98">
+        <v>1.158456288</v>
+      </c>
+      <c r="N98">
+        <v>-1.080456288</v>
+      </c>
+      <c r="O98">
+        <v>-0.20528669472</v>
+      </c>
+      <c r="P98">
+        <v>-0.8751695932799999</v>
+      </c>
+      <c r="Q98">
+        <v>-0.9401695932799998</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.283974776765678</v>
+      </c>
+      <c r="T98">
+        <v>23.00315499247088</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.01279288666608714</v>
+      </c>
+      <c r="W98">
+        <v>0.1813499467194398</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.06733098245309022</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2271989399212894</v>
+      </c>
+      <c r="C99">
+        <v>-4.73335201378275</v>
+      </c>
+      <c r="D99">
+        <v>1.53257798621725</v>
+      </c>
+      <c r="E99">
+        <v>6.34293</v>
+      </c>
+      <c r="F99">
+        <v>6.37193</v>
+      </c>
+      <c r="G99">
+        <v>0.106</v>
+      </c>
+      <c r="H99">
+        <v>6.54</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.013</v>
+      </c>
+      <c r="K99">
+        <v>-0.065</v>
+      </c>
+      <c r="L99">
+        <v>0.078</v>
+      </c>
+      <c r="M99">
+        <v>1.170523541</v>
+      </c>
+      <c r="N99">
+        <v>-1.092523541</v>
+      </c>
+      <c r="O99">
+        <v>-0.20757947279</v>
+      </c>
+      <c r="P99">
+        <v>-0.8849440682099998</v>
+      </c>
+      <c r="Q99">
+        <v>-0.9499440682099998</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.708866369020905</v>
+      </c>
+      <c r="T99">
+        <v>30.67087332329451</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.01266100123653985</v>
+      </c>
+      <c r="W99">
+        <v>0.1813741740728476</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.06663684861336772</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2289429399212894</v>
+      </c>
+      <c r="C100">
+        <v>-4.811210927606799</v>
+      </c>
+      <c r="D100">
+        <v>1.520409072393201</v>
+      </c>
+      <c r="E100">
+        <v>6.40862</v>
+      </c>
+      <c r="F100">
+        <v>6.43762</v>
+      </c>
+      <c r="G100">
+        <v>0.106</v>
+      </c>
+      <c r="H100">
+        <v>6.54</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.013</v>
+      </c>
+      <c r="K100">
+        <v>-0.065</v>
+      </c>
+      <c r="L100">
+        <v>0.078</v>
+      </c>
+      <c r="M100">
+        <v>1.182590794</v>
+      </c>
+      <c r="N100">
+        <v>-1.104590794</v>
+      </c>
+      <c r="O100">
+        <v>-0.20987225086</v>
+      </c>
+      <c r="P100">
+        <v>-0.89471854314</v>
+      </c>
+      <c r="Q100">
+        <v>-0.9597185431399999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.558649553531357</v>
+      </c>
+      <c r="T100">
+        <v>46.00630998494177</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.01253180734637107</v>
+      </c>
+      <c r="W100">
+        <v>0.1813979069904716</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.06595688077037409</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2306869399212894</v>
+      </c>
+      <c r="C101">
+        <v>-4.888878117513288</v>
+      </c>
+      <c r="D101">
+        <v>1.508431882486712</v>
+      </c>
+      <c r="E101">
+        <v>6.47431</v>
+      </c>
+      <c r="F101">
+        <v>6.50331</v>
+      </c>
+      <c r="G101">
+        <v>0.106</v>
+      </c>
+      <c r="H101">
+        <v>6.54</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.013</v>
+      </c>
+      <c r="K101">
+        <v>-0.065</v>
+      </c>
+      <c r="L101">
+        <v>0.078</v>
+      </c>
+      <c r="M101">
+        <v>1.194658047</v>
+      </c>
+      <c r="N101">
+        <v>-1.116658047</v>
+      </c>
+      <c r="O101">
+        <v>-0.21216502893</v>
+      </c>
+      <c r="P101">
+        <v>-0.9044930180699998</v>
+      </c>
+      <c r="Q101">
+        <v>-0.9694930180699999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.107999107062713</v>
+      </c>
+      <c r="T101">
+        <v>92.01261996988353</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.01240522343378147</v>
+      </c>
+      <c r="W101">
+        <v>0.1814211604552143</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.06529064965148146</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
